--- a/data/hotels_by_city/Denver/Denver_shard_25.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="746">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d85374-Reviews-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Comfort-Inn-Denver-Southeast-Area.h27956.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522715711983&amp;vip=false&amp;c=9d99a0a1-88f6-418d-8c8d-68f1e8fa46f8&amp;mctc=9&amp;exp_dp=93.6&amp;exp_ts=1522715712470&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,2138 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r587526813-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>85374</t>
+  </si>
+  <si>
+    <t>587526813</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supercopa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO NOT stay at this hotel. It is outdated, dirty, hot with poor service.  When talking to the front desk mgr about our non-smoking room which stunk of cigarettes, I got attitude. When a bus load of foreign exchange students checked in, there was no control of the noise and craziness from this group.What a complete disappointment. Would never EVER stay here again. Trying to leave as I write this. Supercopa- take this off your hotel list. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r576473253-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>576473253</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>We stayed here on a Saturday night.  The room was large and clean, the lobby was ok.  When I checked in, even though my license was clearly visible, the front desk person insisted that I take it out of my wallet.  There was a hand sanitizing station near the elevator, but it was empty.  At 2:30 in the morning there was a loud group out in the parking lot for several minutes, I wondered why the front desk person didn't ask them to hold it down.The rolls at breakfast the next day were old and inedible.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r574348691-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>574348691</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Avoid...better options nearby</t>
+  </si>
+  <si>
+    <t>Run down and dated. Got woke  up two night in the row by fighting in the hall ways and doors slamming. Pillows are uncomfortable and bed not much better. Breakfast is subpar with paper thin bacon served all the days of my stay. I stay at comfort inns all over the country and this one was well below their normal standards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r542703916-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>542703916</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but needs some updating.</t>
+  </si>
+  <si>
+    <t>I stayed here for almost a week and must say the hotel employees were very nice and the rooms were good but need a little updating, which I think they may have been doing during my stay. Big rooms but the Mini fridge and microwave I think were from the early 80's. They worked just fine though. Besides that the hotel was nice and in a very convenient location to different restaurants, shops and the interstate. I would stay there again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r540500227-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>540500227</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is nice, they offer a medical discount if you or a loved one is having a medical procedure done. Its location is close to UC Health, Children's Hospital and the VA Hospital. There are many restaurants within easy driving distance. The one negative is the area surrounding it isn't the best of areas, so be careful going out at night,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r530612502-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>530612502</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>I'll Give It Just One More Try</t>
+  </si>
+  <si>
+    <t>I liked this place.  The room was nice and housekeeping did a good job.  My only problem was the ladies behind the front desk talking to each other in a different language.  One afternoon I came back to my room but found the maid was in there cleaning so I went back to the lobby and just sat down and watched the news on TV.  I was just a few feet from the front desk and I was in plain sight.  But they just went on and on chatting with each other in very loud voices in a different language.  Then one of the housekeepers joined in so now there was three loud ladies chatting in some other language.  I felt insulted and I feel this was very rude.  My check in and check out experiences went very nicely but I sure didn't enjoy that experience and I'll think twice before I come back since obviously some of the clerks here are not professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I liked this place.  The room was nice and housekeeping did a good job.  My only problem was the ladies behind the front desk talking to each other in a different language.  One afternoon I came back to my room but found the maid was in there cleaning so I went back to the lobby and just sat down and watched the news on TV.  I was just a few feet from the front desk and I was in plain sight.  But they just went on and on chatting with each other in very loud voices in a different language.  Then one of the housekeepers joined in so now there was three loud ladies chatting in some other language.  I felt insulted and I feel this was very rude.  My check in and check out experiences went very nicely but I sure didn't enjoy that experience and I'll think twice before I come back since obviously some of the clerks here are not professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r525686931-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>525686931</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Two night stay</t>
+  </si>
+  <si>
+    <t>Nice hotel, breakfast included,  good hit showers  , near e train not very much noise. Nice staff, good sleep.  Would recommend.  Easy in easy out. Good food in area. Rooms spacious and we'll maintained.  Enjoy your stay.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r518050434-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>518050434</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>A good stay</t>
+  </si>
+  <si>
+    <t>Everything was top notch.   Room was very clean.  Friendly staff.  Breakfast was very good.  Weliked the refrigerator and microwave in the room. Would  stay here again definitely. Location very close to I 225 . They also got us into our room early.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r512971234-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>512971234</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Stay Away!!</t>
+  </si>
+  <si>
+    <t>My family and I reserved a 2 bedroom suite at this location for a week and was not happy upon arrival.  The lobby is not welcoming, the room carpet was worn and dirty, the kitchen appliances were dated and the cabinets were falling apart.  The entire suite requires remodeling immediately.  After one night we checked out and went to another hotel.  Stay away!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r490150263-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>490150263</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Extremely noisy room</t>
+  </si>
+  <si>
+    <t>We wouldn't stay in this hotel again. Room 209, which is right above the breakfast area and atrium, was so noisy in the morning and at night (we could hear several people playing cards...even could hear the shuffle) that I had a lot of difficulty getting to sleep. The room is also in close proximity to the elevator. On the second night of this relentless noise, we called the front desk and asked if someone could tell the people playing cards to pipe down a bit. They did, but unfortunately the acoustics are so awful that even a lower volume didn't do much. Other patrons may find this place far quieter and a better experience, but there are enough hotels around the area not much could influence me to stay at this hotel again. Admittedly our first mistake was in not asking for a different room after the first night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We wouldn't stay in this hotel again. Room 209, which is right above the breakfast area and atrium, was so noisy in the morning and at night (we could hear several people playing cards...even could hear the shuffle) that I had a lot of difficulty getting to sleep. The room is also in close proximity to the elevator. On the second night of this relentless noise, we called the front desk and asked if someone could tell the people playing cards to pipe down a bit. They did, but unfortunately the acoustics are so awful that even a lower volume didn't do much. Other patrons may find this place far quieter and a better experience, but there are enough hotels around the area not much could influence me to stay at this hotel again. Admittedly our first mistake was in not asking for a different room after the first night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r490089070-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>490089070</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms were nice and clean. Waited 20 minutes to be checked in at the front desk upon arrival. Only true downside is that its and EXTRA $20 AN HOUR for a late check out.. kind of crazy if you ask me. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r487483523-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>487483523</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is the 2nd time we have stayed here while visiting family.  This is a great location (close to restaurants, shopping, and Denver).  It's really not that far from the airport either.  We chose it because we have been staying in Comfort Inns for many years in many different cities and states.  The prices are usually the best for the amenities that they offer.  This o email is clean, comfortable, had good breakfast choices, and very friendly service.  We highly recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r458055202-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>458055202</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Very nice place; great staff</t>
+  </si>
+  <si>
+    <t>An excellent place to stay in Denver while on business or visiting family/friends.  Very pleasant and helpful staff.  No pool.  Great location just off I-225 in s.w. Denver.  Moderately close to downtown and airport.  Nice and quiet for sleep.  Breakfast is at the high end of a standard breakfast.  Overall a great deal;  I have stayed here multiple times and will return whenever in the Denver area.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r452883321-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>452883321</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>We were looking for a good home base while we searched for apartments and this place was great. Had a fridge and microwave, comfy bed and pillows, and good breakfast. Location was great off, right off the highway, made for easy travel! Make sure you go to Rosie's Diner next door!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r452573303-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>452573303</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here before we flew out of DIA, it was a fine place to sleep. The rooms were spacious and there were several restaurants around to eat at. We just drove in and crashed for the night, and were pleased. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r440116184-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>440116184</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>great bang for the buck</t>
+  </si>
+  <si>
+    <t>hotel is in an excellent location , right off I225, rooms were great for the price (remember you get what you pay for) , and if I can say one thing about this hotel was the people at the front desk  ... They were PHENOMENAL  , friendliest people you can meet ... the ONLY negative i would say and this is not the hotels fault.. Some morons have smoked in the non smoking rooms  our bathroom smelled of cigarette smoke and on one night someone was obviously enjoying the legal marijuana . Tip ... go to Applebees and see Natalie ... best service around</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r437921985-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>437921985</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Vis of Nov 14,2016</t>
+  </si>
+  <si>
+    <t>Thanks to Quy (little Miss personality)  we were able to check in early.  This gave us extra time to get to the Univ of CO hospital for annual heart check up and not have to worry about our belongings left in the car. That evening after having dinner we went to our room to watch our favorite TV show Dancing with the Stars, which was about half over with.  Horrors the TV wouldn't work.  Sweet Tabathia tried her best to fix it but to no avail.  Bless her heart she moved us to another room but show almost over with.  Other then that all was great.  The breakfast was good and again Quy was on duty and able to advise us as to the best way out of town to Loveland.  The girls were delightful.  Yes, we have stayed at this hotel a number of times over the last 9 years so that alone should tell you that we think it is a good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thanks to Quy (little Miss personality)  we were able to check in early.  This gave us extra time to get to the Univ of CO hospital for annual heart check up and not have to worry about our belongings left in the car. That evening after having dinner we went to our room to watch our favorite TV show Dancing with the Stars, which was about half over with.  Horrors the TV wouldn't work.  Sweet Tabathia tried her best to fix it but to no avail.  Bless her heart she moved us to another room but show almost over with.  Other then that all was great.  The breakfast was good and again Quy was on duty and able to advise us as to the best way out of town to Loveland.  The girls were delightful.  Yes, we have stayed at this hotel a number of times over the last 9 years so that alone should tell you that we think it is a good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r437101296-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>437101296</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel Experience of Three Week Drive</t>
+  </si>
+  <si>
+    <t>After driving from Philadelphia area to Denver and back home, I had numerous overnights along the way. Hands down, this Comfort Inn was the most outstanding of all the places I stayed. The rooms were clean, large, and comfortable.  So much so, that I changed my reservations for the 3 days after I returned from the Rockies. I also took it upon myself to change my friend's reservation, who I was to meet up with at the other hotel. A major part of the comfort I found here was in no small way due to the outstanding competency and kindness of the staff. I am a senior woman on my own, and everyone went a little above the typical level of service expected. Except, Donald Veliz, the Front Desk Manager. He was exceptional in every way a traveler needs from a local host.  He had suggestions for shopping, he spent extra time checking in that everything was going well, and always was the epitome of a gentleman.  His professional approach to the Front Desk details is most commendable. The Comfort Inn Denver Southeast is an easy 10 minute drive into downtown. If you want to be comfortable, safe and near Denver without paying the higher accommodations' rates, you should stay here. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>After driving from Philadelphia area to Denver and back home, I had numerous overnights along the way. Hands down, this Comfort Inn was the most outstanding of all the places I stayed. The rooms were clean, large, and comfortable.  So much so, that I changed my reservations for the 3 days after I returned from the Rockies. I also took it upon myself to change my friend's reservation, who I was to meet up with at the other hotel. A major part of the comfort I found here was in no small way due to the outstanding competency and kindness of the staff. I am a senior woman on my own, and everyone went a little above the typical level of service expected. Except, Donald Veliz, the Front Desk Manager. He was exceptional in every way a traveler needs from a local host.  He had suggestions for shopping, he spent extra time checking in that everything was going well, and always was the epitome of a gentleman.  His professional approach to the Front Desk details is most commendable. The Comfort Inn Denver Southeast is an easy 10 minute drive into downtown. If you want to be comfortable, safe and near Denver without paying the higher accommodations' rates, you should stay here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r427464852-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>427464852</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I need a place to sleep and regroup after a long day in detention centers as an attorney. I needed to print documents. No problem. My TV in my first room did not work,  a quick change and it's all good. I feel like a welcome guest, my experience and comfort matters. As it is, I'm already away from home,  sees l away from my family and missing the comforts of home. No,  this is not home but it is a nice place away from home. The rooms are clean,(I saw 2), staff is friendly, and i actually plan to return at a later date when I need to come back for a future hearing. Not fancy,  not pretentious,  just a good place at a good price.  You are a 25 dollar Uber ride to downtown,  just am fyi.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I need a place to sleep and regroup after a long day in detention centers as an attorney. I needed to print documents. No problem. My TV in my first room did not work,  a quick change and it's all good. I feel like a welcome guest, my experience and comfort matters. As it is, I'm already away from home,  sees l away from my family and missing the comforts of home. No,  this is not home but it is a nice place away from home. The rooms are clean,(I saw 2), staff is friendly, and i actually plan to return at a later date when I need to come back for a future hearing. Not fancy,  not pretentious,  just a good place at a good price.  You are a 25 dollar Uber ride to downtown,  just am fyi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r426011561-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>426011561</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>An Excellent Stay at the Comfort Inn: Southeast Denver</t>
+  </si>
+  <si>
+    <t>During my recent business trip to the Denver Area, I spent two very pleasant and most enjoyable nights at the Comfort Inn: Southeast Denver, located in Aurora, CO. From my initial welcome by Cameron who immediately recognized my as a ChoiceHotels Elite Program member, welcomed me to this Comfort Inn, and provided me with a "bag treats" for being a member of the ChoiceHotels Rewards Program until my "final checkout" two days later, all aspects of my stay were excellent. 
+My room was a large, spacious unit on the Inn's third floor containing a comfortable king-sized bed, a large work space, and lots of electrical plug-ins for my electronics devices. The room also contained a microwave, refrigerator, and a large bathroom with many amenities. It provided me with a comfortable night's sleep in very pleasant surroundings. This Comfort Inn also had two, separate business centers for guests containing computers and printers that I made great use of.
+For a little more than $100.00 per night, I enjoyed a clean, spacious room near to Denver, had a complimentary breakfast, and received courteous service from all staff members I encountered. I especially appreciated the work of Donald Veliz, Front Desk Manager, at this Comfort Inn. Donald was personable and full of energy. He did all possible to make my stay as well as that of other guests most enjoyable and free from stress. Thank you Donald!
+For TripAdvisor Travelers seeking a medium-priced...During my recent business trip to the Denver Area, I spent two very pleasant and most enjoyable nights at the Comfort Inn: Southeast Denver, located in Aurora, CO. From my initial welcome by Cameron who immediately recognized my as a ChoiceHotels Elite Program member, welcomed me to this Comfort Inn, and provided me with a "bag treats" for being a member of the ChoiceHotels Rewards Program until my "final checkout" two days later, all aspects of my stay were excellent. My room was a large, spacious unit on the Inn's third floor containing a comfortable king-sized bed, a large work space, and lots of electrical plug-ins for my electronics devices. The room also contained a microwave, refrigerator, and a large bathroom with many amenities. It provided me with a comfortable night's sleep in very pleasant surroundings. This Comfort Inn also had two, separate business centers for guests containing computers and printers that I made great use of.For a little more than $100.00 per night, I enjoyed a clean, spacious room near to Denver, had a complimentary breakfast, and received courteous service from all staff members I encountered. I especially appreciated the work of Donald Veliz, Front Desk Manager, at this Comfort Inn. Donald was personable and full of energy. He did all possible to make my stay as well as that of other guests most enjoyable and free from stress. Thank you Donald!For TripAdvisor Travelers seeking a medium-priced room in the suburbs near to Denver, I highly recommended the Comfort Inn at 14071 E. Iliff Avenue, Aurora, CO. It provides guests with a clean, comfortable, centrally located Inn with many amenities. The next time my travels take me to Denver, I will return to this Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>During my recent business trip to the Denver Area, I spent two very pleasant and most enjoyable nights at the Comfort Inn: Southeast Denver, located in Aurora, CO. From my initial welcome by Cameron who immediately recognized my as a ChoiceHotels Elite Program member, welcomed me to this Comfort Inn, and provided me with a "bag treats" for being a member of the ChoiceHotels Rewards Program until my "final checkout" two days later, all aspects of my stay were excellent. 
+My room was a large, spacious unit on the Inn's third floor containing a comfortable king-sized bed, a large work space, and lots of electrical plug-ins for my electronics devices. The room also contained a microwave, refrigerator, and a large bathroom with many amenities. It provided me with a comfortable night's sleep in very pleasant surroundings. This Comfort Inn also had two, separate business centers for guests containing computers and printers that I made great use of.
+For a little more than $100.00 per night, I enjoyed a clean, spacious room near to Denver, had a complimentary breakfast, and received courteous service from all staff members I encountered. I especially appreciated the work of Donald Veliz, Front Desk Manager, at this Comfort Inn. Donald was personable and full of energy. He did all possible to make my stay as well as that of other guests most enjoyable and free from stress. Thank you Donald!
+For TripAdvisor Travelers seeking a medium-priced...During my recent business trip to the Denver Area, I spent two very pleasant and most enjoyable nights at the Comfort Inn: Southeast Denver, located in Aurora, CO. From my initial welcome by Cameron who immediately recognized my as a ChoiceHotels Elite Program member, welcomed me to this Comfort Inn, and provided me with a "bag treats" for being a member of the ChoiceHotels Rewards Program until my "final checkout" two days later, all aspects of my stay were excellent. My room was a large, spacious unit on the Inn's third floor containing a comfortable king-sized bed, a large work space, and lots of electrical plug-ins for my electronics devices. The room also contained a microwave, refrigerator, and a large bathroom with many amenities. It provided me with a comfortable night's sleep in very pleasant surroundings. This Comfort Inn also had two, separate business centers for guests containing computers and printers that I made great use of.For a little more than $100.00 per night, I enjoyed a clean, spacious room near to Denver, had a complimentary breakfast, and received courteous service from all staff members I encountered. I especially appreciated the work of Donald Veliz, Front Desk Manager, at this Comfort Inn. Donald was personable and full of energy. He did all possible to make my stay as well as that of other guests most enjoyable and free from stress. Thank you Donald!For TripAdvisor Travelers seeking a medium-priced room in the suburbs near to Denver, I highly recommended the Comfort Inn at 14071 E. Iliff Avenue, Aurora, CO. It provides guests with a clean, comfortable, centrally located Inn with many amenities. The next time my travels take me to Denver, I will return to this Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r425178268-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>425178268</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>The stay was nice. Room clean and comfortable. We stayed in the same Comfort Inn two different times - one week apart in accord with our vacation plans. Both visits met our expectations. Both check in and check out was very easy and we were able to get into our room without delay. We were on first floor and near the lobby and it was very quiet all the time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r420986682-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>420986682</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Quiet stay</t>
+  </si>
+  <si>
+    <t>Stayed in room 300 way away from the elevator....nice and quiet.  Only complaint was husband could never get his device connected to wifi.  Breakfast was average.  Eggs were not even warm....possibly timing was just bad.  Otherwise clean and quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r407274392-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>407274392</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old and dirty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The girl at the front desk was very sweet but the hotel is old and unkept. The carpets are all stained and looked as though they had not been vacuumed in some time. The bed coverings were stained and had burned marks on them, which was surprising since they are a "non-smoking" hotel. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r406710894-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>406710894</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>It was a good experience, we were there for a funeral and the Attendant was very helpful to our family members that stay</t>
+  </si>
+  <si>
+    <t>The room, the amenities were good and comfortable.  The breakfast was good, the only negative, was I had tea and the water was not quite hot enough .  The food variety for breakfast was good. My family that stayed at the hotel was pleased also.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r400621298-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>400621298</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>very comfortable and clean</t>
+  </si>
+  <si>
+    <t>rooms and décor was a little date ,could use a makeover but overall was VERY GOOD. We were there for medical appts and appreciated the medical discount. That was a big help. There were a number of eaterys nearby and you can walk to some of themMoreShow less</t>
+  </si>
+  <si>
+    <t>rooms and décor was a little date ,could use a makeover but overall was VERY GOOD. We were there for medical appts and appreciated the medical discount. That was a big help. There were a number of eaterys nearby and you can walk to some of themMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r395952177-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>395952177</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was fine. </t>
+  </si>
+  <si>
+    <t>This small hotel served the purpose. Though it has been updated our room smelled a little smokey even though it is a non-smoking hotel. The continental breakfast was fine, my kids enjoyed the Belgian waffles. I guess the price is typical for the Denver area, but I felt it was a little high for a small hotel without a pool. MoreShow less</t>
+  </si>
+  <si>
+    <t>This small hotel served the purpose. Though it has been updated our room smelled a little smokey even though it is a non-smoking hotel. The continental breakfast was fine, my kids enjoyed the Belgian waffles. I guess the price is typical for the Denver area, but I felt it was a little high for a small hotel without a pool. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r394916282-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>394916282</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>Probably the better choice in the area but.........</t>
+  </si>
+  <si>
+    <t>Front desk staff was good, friendly and helpful.  Breakfast is the norm for the Choice hotel group.  Accommodations were average at best.  Attempted to go in the fitness center for a workout and woke a person sleeping on the floor next to the treadmill.  (wonder if he paid for the use of the room?)  Upon checking out, there was a construction worker asleep in the chair in the lobby.  He remained there while guests ate breakfast around him.  Never woke up while we were there.  Bottom line........ When I return to the area, I will find different accomodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Front desk staff was good, friendly and helpful.  Breakfast is the norm for the Choice hotel group.  Accommodations were average at best.  Attempted to go in the fitness center for a workout and woke a person sleeping on the floor next to the treadmill.  (wonder if he paid for the use of the room?)  Upon checking out, there was a construction worker asleep in the chair in the lobby.  He remained there while guests ate breakfast around him.  Never woke up while we were there.  Bottom line........ When I return to the area, I will find different accomodations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r385614787-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385614787</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Stayed 1 night 6.22.16. Was a last minute trip and most other hotels in the area were booked. We found a room here and I was skeptical because the rate was nearly half of others we called. We were pleasantly surprised. The room was clean and comfortable and provided the usual amenities for the franchise. Front desk staff was courteous and polite. As a bonus, there is a diner and a restaurant within easy walking distance. The breakfast was what you would normally expect to find elsewhere, and was perfectly suitable. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 1 night 6.22.16. Was a last minute trip and most other hotels in the area were booked. We found a room here and I was skeptical because the rate was nearly half of others we called. We were pleasantly surprised. The room was clean and comfortable and provided the usual amenities for the franchise. Front desk staff was courteous and polite. As a bonus, there is a diner and a restaurant within easy walking distance. The breakfast was what you would normally expect to find elsewhere, and was perfectly suitable. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r385388411-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>385388411</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Another nice stay</t>
+  </si>
+  <si>
+    <t>Property was well kept both inside and out. Room was clean and comfortable though a little dated. Front desk staff both at check in and check out were most helpful and friendly.  Located close to interstate with stores and restaurants nearby.  Did not partake in the available free breakfast but did see others enjoying a good meal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Property was well kept both inside and out. Room was clean and comfortable though a little dated. Front desk staff both at check in and check out were most helpful and friendly.  Located close to interstate with stores and restaurants nearby.  Did not partake in the available free breakfast but did see others enjoying a good meal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r383273427-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>383273427</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Solid staff but property is in sore need of a renovation.</t>
+  </si>
+  <si>
+    <t>From the bathroom sink being separate from the shower and toilet to the carpeting and outdated furniture this property looks tired.  That said, our stay was comfortable and the staff did a great job responding to  ends and requests.  Housekeeping and breakfast staffordable did a find job.  We'd  come back for certain.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the bathroom sink being separate from the shower and toilet to the carpeting and outdated furniture this property looks tired.  That said, our stay was comfortable and the staff did a great job responding to  ends and requests.  Housekeeping and breakfast staffordable did a find job.  We'd  come back for certain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r371523756-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>371523756</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>In town for granddaughter's graduation, so I didn't need luxury.  Nice place, clean rooms, nice staff.  A bright spot was Rosie's Diner next door-great place to eat. Beds were comfortable and room was quiet even though Iliff is a Main Street.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>In town for granddaughter's graduation, so I didn't need luxury.  Nice place, clean rooms, nice staff.  A bright spot was Rosie's Diner next door-great place to eat. Beds were comfortable and room was quiet even though Iliff is a Main Street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r366569088-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>366569088</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Decided to stay here based on good reviews. Overall, it was ok. Pleasant staff. Good breakfast included. Comfortable bed. Ample free parking. The Hot and Cold water was reversed on the shower control. Had to hold down the On/Off switch on the hairdryer to use it. And the police were called when guests started a fight in the lobby near the check-in desk.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r365793537-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>365793537</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Overnight Trip</t>
+  </si>
+  <si>
+    <t>A couple friends and I chose this hotel based on it's location. We were going to a concert at the Stampede Dance Emporium and this hotel hit the spot! It was within 5min Uber drive and reasonably priced! The continental breakfast had a lot to offer - not just a waffle machine, but eggs, biscuits and gravy! Our room also included a microwave and mini fridge which seemed to be standard part of the room reservation which is a huge perk!!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r358266988-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>358266988</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>The staff was very friemdly and helpful in every way they could. They switched our room to what we asked, even though they had a full hotel. They helped us find food sources and even came to our room to help with running the TV. We would go back because of the staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r355069437-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>355069437</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>In Town for Dad's Funeral</t>
+  </si>
+  <si>
+    <t>Upon arrival, my family and I received extremely fast and friendly check-in. Restaurants are in walking distance.  Check-in desk served as a concierge and able to assist us in understanding the hotel surroundings. Free wifi offered.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r355047299-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>355047299</t>
+  </si>
+  <si>
+    <t>Room fine; breakfast disappointing.</t>
+  </si>
+  <si>
+    <t>We stayed one night.  The staff was very friendly and accommodating.  The bed was very comfortable.  We had no reason to suspect the breakfast would be so bad. The eggs were so rubbery and tasteless we couldn't eat them.  The waffle maker wasn't turned on so we had to wait for it to heat up.  The juice and the coffee were watery. The staff member manning the breakfast was on her phone the whole time, but the worst was when she sneezed and just wiped her nose on the back of her hand.  Ewwww! My meal stopped there. If you are just wanting a room, go for it,  but have breakfast somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night.  The staff was very friendly and accommodating.  The bed was very comfortable.  We had no reason to suspect the breakfast would be so bad. The eggs were so rubbery and tasteless we couldn't eat them.  The waffle maker wasn't turned on so we had to wait for it to heat up.  The juice and the coffee were watery. The staff member manning the breakfast was on her phone the whole time, but the worst was when she sneezed and just wiped her nose on the back of her hand.  Ewwww! My meal stopped there. If you are just wanting a room, go for it,  but have breakfast somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r336099463-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>336099463</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Excellent location, friendly people, great room and good breakfast. Spent a week there and everything was great. It is centrally located to the areas that we were interested in, right next to freeway but no freeway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Excellent location, friendly people, great room and good breakfast. Spent a week there and everything was great. It is centrally located to the areas that we were interested in, right next to freeway but no freeway noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r334320159-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>334320159</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Super nice Reception</t>
+  </si>
+  <si>
+    <t>The reception I received was fantastic. Very helpful .The rooms were clean,And user friendly. I requested additional information ,and was pleasantly advised on my inquiries.I throughly enjoyed my stay. Love the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The reception I received was fantastic. Very helpful .The rooms were clean,And user friendly. I requested additional information ,and was pleasantly advised on my inquiries.I throughly enjoyed my stay. Love the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r328910390-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>328910390</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Comfort Inn Denver SouthEast</t>
+  </si>
+  <si>
+    <t>This is a great! place to stay. Clean, well kept, accommodating, all the staff is very nice, especially Tocara at the front desk - so personable and helpful. Everything about it made for a very comfortable stay. Most impressed by the quality and attention to detail, a very pleasant experience. So much so, decided to stay a second night. Only one minor pit: biscuits and gravy was pretty awful. Other than that, very nice breakfast bar.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r321714165-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>321714165</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>The bed was comfortable, the shower hot and there was a great shower head that helped work out the sore muscles in my back. Staff were friendly and accommodating. As a gluten-free diner I would have appreciated more choices for breakfast, but the scrambled eggs were good and the yogurt and pear were both fresh and tasty. The biggest thing is how clean the facility was, my room, the lobby and the dining area were sparkling clean and well maintained. I'll be back!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r319442515-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>319442515</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Denver wedding</t>
+  </si>
+  <si>
+    <t>Absolutely excellent experience. The staff is great.  The rooms are great. They offer free hot breakfast which is more than adequate along with free dinner and drinks in the evening. Although the evening dinner is very basic it is still more than amazing that it is even offered. Our two night stay here was by far less than we would have stayed for one night downtown. Yes it is not in the best area but you can't beat the price. All things considered this is a great place to stay if passing through. Also kudos to the wonderful stall who found a bag I left behind and sent it back to me after I sent them a postage paid mailing label. The bag had some sentimental jewelry in it and all was returned to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Absolutely excellent experience. The staff is great.  The rooms are great. They offer free hot breakfast which is more than adequate along with free dinner and drinks in the evening. Although the evening dinner is very basic it is still more than amazing that it is even offered. Our two night stay here was by far less than we would have stayed for one night downtown. Yes it is not in the best area but you can't beat the price. All things considered this is a great place to stay if passing through. Also kudos to the wonderful stall who found a bag I left behind and sent it back to me after I sent them a postage paid mailing label. The bag had some sentimental jewelry in it and all was returned to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r315684952-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>315684952</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Beds were comfortable with plush comforter; accessible bathroom (roll-in shower) was one of the nicest I've encountered - would be nice if shower had a soap holder, though. Room was badly in need of new carpet, but overall, no complaints.We booked two rooms and were able to have adjoining rooms, which we appreciated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r311502496-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>311502496</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Nice hotel, staff made you feel at home. rooms were clean and comfortable. The front desk went out of their way to assist us in our future travels through Colorado for the up coming week. Stayed here for convience to the University of Denver.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r311121124-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>311121124</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>First impression was a clean modern place and the room was nice.  Checked in at 2PM and had an hour or so to relax before leaving for the evening for a show at Red Rocks.  Upon returning to the room at midnight we opened the door to find the room sweltering hot and the AC unit would not come on at all.  A call to the front desk brought the only front desk night person up to the room only to confirm the AC unit was broke.  He could do nothing other than open the window at that point and brought up a dirty box fan that they used in the office.  We had an early flight out and needed to get to bed so just dealt with it.  The AC unit randomly came on and off all night and it was a miserable short nights sleep.  Upon waking in the morning the receipt for the FULL price for the room was laying on the floor.  We were too pressed for time in the morning to take it up with anyone.  Thanks Comfort InnMoreShow less</t>
+  </si>
+  <si>
+    <t>First impression was a clean modern place and the room was nice.  Checked in at 2PM and had an hour or so to relax before leaving for the evening for a show at Red Rocks.  Upon returning to the room at midnight we opened the door to find the room sweltering hot and the AC unit would not come on at all.  A call to the front desk brought the only front desk night person up to the room only to confirm the AC unit was broke.  He could do nothing other than open the window at that point and brought up a dirty box fan that they used in the office.  We had an early flight out and needed to get to bed so just dealt with it.  The AC unit randomly came on and off all night and it was a miserable short nights sleep.  Upon waking in the morning the receipt for the FULL price for the room was laying on the floor.  We were too pressed for time in the morning to take it up with anyone.  Thanks Comfort InnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r309903587-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>309903587</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Pleasant experience</t>
+  </si>
+  <si>
+    <t>We absolutely loved our stay at this hotel. We had some special accommodation requests and the staff was very kind to fulfill them. The front desk staff was friendly, the housekeeping staff did great job at keeping our room clean and pleasant. The bed and the pillows were comfortable, the linen smelled fresh. The carpet and the sofa were a bit warned out, but it wasn't something that bothered us. The Wi-Fi signal was slightly weak and the internet connection as slow, but it was ok, since we were able to use the computer in the lobby and print free of charge.The breakfast room is very tiny with 6-7 tables, but if you get up early you there's always a table for you. Plenty of food (eggs, sausages, waffles, bagels, muffins, apples, bananas, oranges, cream cheese, etc).I was pleasantly surprised that on the last day of our stay the manager came to the table of each group that was having breakfast and personally thanked each of us for choosing her hotel and asked if our stay was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>We absolutely loved our stay at this hotel. We had some special accommodation requests and the staff was very kind to fulfill them. The front desk staff was friendly, the housekeeping staff did great job at keeping our room clean and pleasant. The bed and the pillows were comfortable, the linen smelled fresh. The carpet and the sofa were a bit warned out, but it wasn't something that bothered us. The Wi-Fi signal was slightly weak and the internet connection as slow, but it was ok, since we were able to use the computer in the lobby and print free of charge.The breakfast room is very tiny with 6-7 tables, but if you get up early you there's always a table for you. Plenty of food (eggs, sausages, waffles, bagels, muffins, apples, bananas, oranges, cream cheese, etc).I was pleasantly surprised that on the last day of our stay the manager came to the table of each group that was having breakfast and personally thanked each of us for choosing her hotel and asked if our stay was pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r299885146-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>299885146</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and affordable</t>
+  </si>
+  <si>
+    <t>Standard Comfort Inn.  Mid to low price range with expected amenities.  Good breakfast options and well stocked.  Easy location to get to--right off 225.  Nice staff.  Rooms were comfortable and clean.  Didn't notice any excessive noise, but we usually sleep with fan going to provide white-noise and drown-out any outside sounds.  Very satisfied.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2015</t>
+  </si>
+  <si>
+    <t>Standard Comfort Inn.  Mid to low price range with expected amenities.  Good breakfast options and well stocked.  Easy location to get to--right off 225.  Nice staff.  Rooms were comfortable and clean.  Didn't notice any excessive noise, but we usually sleep with fan going to provide white-noise and drown-out any outside sounds.  Very satisfied.  Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r296593446-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>296593446</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>comfortable room ok place</t>
+  </si>
+  <si>
+    <t>The room was large with a king size bed and comfortable mattress. The bathroom was clean. Even though our room was next to the elevator it was pretty quiet. The breakfast bar was a bit below average in selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The room was large with a king size bed and comfortable mattress. The bathroom was clean. Even though our room was next to the elevator it was pretty quiet. The breakfast bar was a bit below average in selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r294759161-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>294759161</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Front desk staff was friendly. Our room was clean and comfortable. We loved the mattress, and our room was quite, so we woke up refreshed each morning. We also enjoyed that breakfast was included. This hotel is close to Applebees, Outback Steak House, Joe's Crab Shack, and more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk staff was friendly. Our room was clean and comfortable. We loved the mattress, and our room was quite, so we woke up refreshed each morning. We also enjoyed that breakfast was included. This hotel is close to Applebees, Outback Steak House, Joe's Crab Shack, and more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r292201024-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>292201024</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the best </t>
+  </si>
+  <si>
+    <t>So the lady's at the front desk are not very inviting they seem unhappy with there job. That is not the great customer service I look for when I stay with the choice hotel brand. The rooms are clean but ran down. The breakfast area is really small and the attendant could not seem to keep it stocked (she was busy on her phone) the juice was watered down, the sausage and bacon was very terrible and the eggs had no flavor. How ever the housekeepers were very sweet. Another I didn't care for was the guys outside smoking weed I know it's legal but I had kids with me. I stay with many choice hotels when traveling I would say this is one of the more ghetto property's I have been to. MoreShow less</t>
+  </si>
+  <si>
+    <t>So the lady's at the front desk are not very inviting they seem unhappy with there job. That is not the great customer service I look for when I stay with the choice hotel brand. The rooms are clean but ran down. The breakfast area is really small and the attendant could not seem to keep it stocked (she was busy on her phone) the juice was watered down, the sausage and bacon was very terrible and the eggs had no flavor. How ever the housekeepers were very sweet. Another I didn't care for was the guys outside smoking weed I know it's legal but I had kids with me. I stay with many choice hotels when traveling I would say this is one of the more ghetto property's I have been to. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r290884592-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>290884592</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever - Stay at Quality Inn and Suites in Same Town Instead</t>
+  </si>
+  <si>
+    <t>I arrived at this Comfort Suites after a 22 hour train ride, I was exhausted and so was my disabled daughter.  I got there at about noon and the front desk clerk Marisala told me their check-in time was at 3pm.  I was going to sit in their waiting area and just watch television until my room was ready, however she told me that they do not allow people to wait for a room on the property and she told me that I should go shopping downtown and come back at 3.  I explained that I was exhausted and that I did not have a car and I have a 4 large suitcases which makes going out shopping rather cumbersome and on top of that, my 5-year-old daughter was falling asleep right on the luggage cart so obviously going out shopping is not ideal for me right now.  She told me I need to leave the property and come back at 3pm.  I asked if by chance a room may be ready sooner, and she just kept repeating herself saying I need to leave and come back at 3pm.
+I never heard of a hotel that does not allow people to WAIT in their WAITING room for a room, and on top of that, this front desk woman was so rude and condescending.  This was really surprising since the hotel is situated near to so many medical centers closeby and...I arrived at this Comfort Suites after a 22 hour train ride, I was exhausted and so was my disabled daughter.  I got there at about noon and the front desk clerk Marisala told me their check-in time was at 3pm.  I was going to sit in their waiting area and just watch television until my room was ready, however she told me that they do not allow people to wait for a room on the property and she told me that I should go shopping downtown and come back at 3.  I explained that I was exhausted and that I did not have a car and I have a 4 large suitcases which makes going out shopping rather cumbersome and on top of that, my 5-year-old daughter was falling asleep right on the luggage cart so obviously going out shopping is not ideal for me right now.  She told me I need to leave the property and come back at 3pm.  I asked if by chance a room may be ready sooner, and she just kept repeating herself saying I need to leave and come back at 3pm.I never heard of a hotel that does not allow people to WAIT in their WAITING room for a room, and on top of that, this front desk woman was so rude and condescending.  This was really surprising since the hotel is situated near to so many medical centers closeby and undoubtedly they get a lot of guests with varying medical conditions (and visiting a medical center for my young daughter was the reason for my trip).Thankfully, I am a Choice Rewards member and their customer service was great and they moved me to the Quality Inn and Suites about 5 min away and I am so glad I moved because the other property was actually much nicer.This Comfort Inn looks really run down and has a funny smell in the lobby, and their have huge locking doors over their elevators. I stay at a lot of Comfort Suites because I love their properties, however the upkeep on this property was terrible and everything looked like it was falling apart or salvaged from the 1970's ... on top of that, with the manners of their staff (not just the front desk, but all the staff I interacted with), they acted like they did not want any guests at their hotel ... I have so much disdain toward properties that treat their guests like that and I will never stay here ever ... go ANYWHERE else and you will have a better travel experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived at this Comfort Suites after a 22 hour train ride, I was exhausted and so was my disabled daughter.  I got there at about noon and the front desk clerk Marisala told me their check-in time was at 3pm.  I was going to sit in their waiting area and just watch television until my room was ready, however she told me that they do not allow people to wait for a room on the property and she told me that I should go shopping downtown and come back at 3.  I explained that I was exhausted and that I did not have a car and I have a 4 large suitcases which makes going out shopping rather cumbersome and on top of that, my 5-year-old daughter was falling asleep right on the luggage cart so obviously going out shopping is not ideal for me right now.  She told me I need to leave the property and come back at 3pm.  I asked if by chance a room may be ready sooner, and she just kept repeating herself saying I need to leave and come back at 3pm.
+I never heard of a hotel that does not allow people to WAIT in their WAITING room for a room, and on top of that, this front desk woman was so rude and condescending.  This was really surprising since the hotel is situated near to so many medical centers closeby and...I arrived at this Comfort Suites after a 22 hour train ride, I was exhausted and so was my disabled daughter.  I got there at about noon and the front desk clerk Marisala told me their check-in time was at 3pm.  I was going to sit in their waiting area and just watch television until my room was ready, however she told me that they do not allow people to wait for a room on the property and she told me that I should go shopping downtown and come back at 3.  I explained that I was exhausted and that I did not have a car and I have a 4 large suitcases which makes going out shopping rather cumbersome and on top of that, my 5-year-old daughter was falling asleep right on the luggage cart so obviously going out shopping is not ideal for me right now.  She told me I need to leave the property and come back at 3pm.  I asked if by chance a room may be ready sooner, and she just kept repeating herself saying I need to leave and come back at 3pm.I never heard of a hotel that does not allow people to WAIT in their WAITING room for a room, and on top of that, this front desk woman was so rude and condescending.  This was really surprising since the hotel is situated near to so many medical centers closeby and undoubtedly they get a lot of guests with varying medical conditions (and visiting a medical center for my young daughter was the reason for my trip).Thankfully, I am a Choice Rewards member and their customer service was great and they moved me to the Quality Inn and Suites about 5 min away and I am so glad I moved because the other property was actually much nicer.This Comfort Inn looks really run down and has a funny smell in the lobby, and their have huge locking doors over their elevators. I stay at a lot of Comfort Suites because I love their properties, however the upkeep on this property was terrible and everything looked like it was falling apart or salvaged from the 1970's ... on top of that, with the manners of their staff (not just the front desk, but all the staff I interacted with), they acted like they did not want any guests at their hotel ... I have so much disdain toward properties that treat their guests like that and I will never stay here ever ... go ANYWHERE else and you will have a better travel experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r290359870-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>290359870</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Cheap rates</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night while passing through on our way home. The price is fair. It's unfortunate that it was dimly lit and everything seemed kind of dingy. I wouldn't dare look to closely at the carpet or corners. I'm glad we were only here for 1 night. The gal at the front desk was more than accommodating and sweet as could be.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 1 night while passing through on our way home. The price is fair. It's unfortunate that it was dimly lit and everything seemed kind of dingy. I wouldn't dare look to closely at the carpet or corners. I'm glad we were only here for 1 night. The gal at the front desk was more than accommodating and sweet as could be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r279819092-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>279819092</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>I would stay again</t>
+  </si>
+  <si>
+    <t>After being cooped up in the car we all very much appreciated the big rooms. The bed was comfortable. The room was clean and in great shape. The staff was very friendly! The hotel has a no smoking policy for the rooms which is great  and would rank a five if there was a spot a little bit away from the front door for smoking. MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2015</t>
+  </si>
+  <si>
+    <t>After being cooped up in the car we all very much appreciated the big rooms. The bed was comfortable. The room was clean and in great shape. The staff was very friendly! The hotel has a no smoking policy for the rooms which is great  and would rank a five if there was a spot a little bit away from the front door for smoking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r279561600-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>279561600</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Laptop was stolen from room</t>
+  </si>
+  <si>
+    <t>On March 13, 2015 my daughter and I stayed at this hotel.  In the evening my daughter did some homework for college and also watched Netflix on her laptop.  She left it on her bed overnight and when she got up, apparently threw her blankets on top of it.  We left and headed home.  On way home my daughter went to take her laptop out of her bag and noticed it wasn't there.  We live 6 hrs away.  We called the hotel when we got back and told them we left our laptop in the room.  We were told by the front desk lady that nothing was turned in unless someone put it in the safe and she couldnt get in it and we were told to call back in the morning. We called next day and nothing was turned in, they said they looked at the camera video and saw us leaving and the cleaning lady not taking anything out of the room.  The cleaning people and front desk people all know there are cameras.  They are not just going to walk out of a room with what they are stealing in their hands.  They are going to cover it up and take it out.  I asked if their insurance put a claim in their insurance to cover the theft and they said they wouldn't because we couldn't prove anyone stole my daughter's laptop.  I thought that is why...On March 13, 2015 my daughter and I stayed at this hotel.  In the evening my daughter did some homework for college and also watched Netflix on her laptop.  She left it on her bed overnight and when she got up, apparently threw her blankets on top of it.  We left and headed home.  On way home my daughter went to take her laptop out of her bag and noticed it wasn't there.  We live 6 hrs away.  We called the hotel when we got back and told them we left our laptop in the room.  We were told by the front desk lady that nothing was turned in unless someone put it in the safe and she couldnt get in it and we were told to call back in the morning. We called next day and nothing was turned in, they said they looked at the camera video and saw us leaving and the cleaning lady not taking anything out of the room.  The cleaning people and front desk people all know there are cameras.  They are not just going to walk out of a room with what they are stealing in their hands.  They are going to cover it up and take it out.  I asked if their insurance put a claim in their insurance to cover the theft and they said they wouldn't because we couldn't prove anyone stole my daughter's laptop.  I thought that is why there is insurance in hotels.  Very disappointed in how this was handled and just want to let everyone know that there are people working there that will steal stuff from you. Be careful if you stay there, things might just disappear and nothing will be done about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>On March 13, 2015 my daughter and I stayed at this hotel.  In the evening my daughter did some homework for college and also watched Netflix on her laptop.  She left it on her bed overnight and when she got up, apparently threw her blankets on top of it.  We left and headed home.  On way home my daughter went to take her laptop out of her bag and noticed it wasn't there.  We live 6 hrs away.  We called the hotel when we got back and told them we left our laptop in the room.  We were told by the front desk lady that nothing was turned in unless someone put it in the safe and she couldnt get in it and we were told to call back in the morning. We called next day and nothing was turned in, they said they looked at the camera video and saw us leaving and the cleaning lady not taking anything out of the room.  The cleaning people and front desk people all know there are cameras.  They are not just going to walk out of a room with what they are stealing in their hands.  They are going to cover it up and take it out.  I asked if their insurance put a claim in their insurance to cover the theft and they said they wouldn't because we couldn't prove anyone stole my daughter's laptop.  I thought that is why...On March 13, 2015 my daughter and I stayed at this hotel.  In the evening my daughter did some homework for college and also watched Netflix on her laptop.  She left it on her bed overnight and when she got up, apparently threw her blankets on top of it.  We left and headed home.  On way home my daughter went to take her laptop out of her bag and noticed it wasn't there.  We live 6 hrs away.  We called the hotel when we got back and told them we left our laptop in the room.  We were told by the front desk lady that nothing was turned in unless someone put it in the safe and she couldnt get in it and we were told to call back in the morning. We called next day and nothing was turned in, they said they looked at the camera video and saw us leaving and the cleaning lady not taking anything out of the room.  The cleaning people and front desk people all know there are cameras.  They are not just going to walk out of a room with what they are stealing in their hands.  They are going to cover it up and take it out.  I asked if their insurance put a claim in their insurance to cover the theft and they said they wouldn't because we couldn't prove anyone stole my daughter's laptop.  I thought that is why there is insurance in hotels.  Very disappointed in how this was handled and just want to let everyone know that there are people working there that will steal stuff from you. Be careful if you stay there, things might just disappear and nothing will be done about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r278826429-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>278826429</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel - convenient to freeways</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is easy to find (although a little difficult to actually get to). Warm and friendly people at the front desk and everything looks neat and clean. Our room on second floor looked fairly fresh and attractive with nice bed linens (plenty of pillows), nicely folded towels and an interesting corner "kitchen" with a bar sink and the coffee pot. Note that the pot is a regular 4 cup pot and not an individual brewer. It has a microwave and refrigerator. Note the photos.Breakfast had bacon and scrambled eggs plus yogurt, fruit, waffles and the usual sugar and carbs - very nice. WiFi worked well.All in all, we'll stay here again when in town next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This Comfort Inn is easy to find (although a little difficult to actually get to). Warm and friendly people at the front desk and everything looks neat and clean. Our room on second floor looked fairly fresh and attractive with nice bed linens (plenty of pillows), nicely folded towels and an interesting corner "kitchen" with a bar sink and the coffee pot. Note that the pot is a regular 4 cup pot and not an individual brewer. It has a microwave and refrigerator. Note the photos.Breakfast had bacon and scrambled eggs plus yogurt, fruit, waffles and the usual sugar and carbs - very nice. WiFi worked well.All in all, we'll stay here again when in town next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r261502461-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>261502461</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>Close to what we needed and comfortable!</t>
+  </si>
+  <si>
+    <t>We chose Comfort Inn because it was close to my brother's house and the reviews were good.  Our room was spacious, clean, and had the amenities we needed.  The price was also right.  I want to thank the staff for making our stay so care free.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded March 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2015</t>
+  </si>
+  <si>
+    <t>We chose Comfort Inn because it was close to my brother's house and the reviews were good.  Our room was spacious, clean, and had the amenities we needed.  The price was also right.  I want to thank the staff for making our stay so care free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r258320440-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>258320440</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Satisfactory yet priced high</t>
+  </si>
+  <si>
+    <t>Clean, reasonable sized room, satisfactory condition.Rooms and bathroom were not well laid out. For example, the heater / air conditioner blows behind the window blinds. Overall it seems to be lower quality than its price.Can walk in a few minutes to two restaurants without crossing a street. A few more are not far away. Driving, it is tricky to get to the property except from the east.No plugs for chargers near the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, reasonable sized room, satisfactory condition.Rooms and bathroom were not well laid out. For example, the heater / air conditioner blows behind the window blinds. Overall it seems to be lower quality than its price.Can walk in a few minutes to two restaurants without crossing a street. A few more are not far away. Driving, it is tricky to get to the property except from the east.No plugs for chargers near the desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r256743305-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>256743305</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly comfortable</t>
+  </si>
+  <si>
+    <t>Not new place but clean and comfortable rooms. I can't point out anything particular worn out or bad experience. It was week days so it is quiet. Entry from road is not simple if you are on east bound on Iliff Rd.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r236328568-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>236328568</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Everything you need for a good nights sleep</t>
+  </si>
+  <si>
+    <t>Basic hotel that did not disappoint.  Room was clean and comfortable.  Good nights sleep with no disturbances.  Nice shower in the morning.  Decent FREE breakfast.  Super friendly and efficient staff.  All at an affordable price.  Enjoyed my stay at Comfort Inn and would return.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r235803422-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>235803422</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>Nicer</t>
+  </si>
+  <si>
+    <t>Better than most choice hotel chains.....quality breakfast with good customer service non-smoking inside with $200 fee for violating the smoking policy. Clean rooms. No smoke odor or other odors...Kind staff. Housekeeping is exceptional. Ability to extend stay. Good price...3 star quality for a 2 star price....Satisfied.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r235598738-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>235598738</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Average, Older Hotel</t>
+  </si>
+  <si>
+    <t>We stayed overnight and slept fine in this hotel.  The people were friendly and the room had everything we needed.  This is a hotel in need of updating.  Our bed was clean but the carpet was stained.  The closet door did not work well.  The mattresses were well covered and the pillows were comfortable.  The air conditioner probably needed to have a new filter as there seemed to be a musty smell to the room.  Breakfast was fine to get us on our way.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r226479554-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>226479554</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Nice place, but thin walls</t>
+  </si>
+  <si>
+    <t>Went on a 4 night trip to Denver.  Went with a family of 3, including a 3 year old.  Staff was helpful, got us a pack 'n play for our child very quickly.  Had a room on the 2nd floor, near elevator.  Our room had 2 queen beds and still had plenty of room for crib.  
+Morning breakfast was plentiful.  The only item that was different on successive days was the sausage/bacon/biscuit and gravy.  Waffles were good and cooked quickly, in about 2 min and 30 seconds.  Coffee is available in the lobby both am and pm.  Got a cookie one late evening at the front desk.  
+Other amenities I enjoyed:  complimentary newspapers in the lobby;  Wifi worked OK in the guest room. Computer in lobby worked well to get our flight boarding passes.
+Location was good, because it was relatively close to downtown Denver (by my perspective, since my home is in LA), and the 225 freeway made it easy to drive south to Colorado Springs.  Also, easy access to the airport.  Aurora was a nice suburb to stay in. Close to many shops, big mall, and restaurants by car, within 1-10 minutes.  Walking distance to 2 restaurants without having to cross the street.  
+Only had one or two minor problems. Housekeeping for got to change our bath towels one night, but easily got more from the front desk.  The other problem was that the guests next door had...Went on a 4 night trip to Denver.  Went with a family of 3, including a 3 year old.  Staff was helpful, got us a pack 'n play for our child very quickly.  Had a room on the 2nd floor, near elevator.  Our room had 2 queen beds and still had plenty of room for crib.  Morning breakfast was plentiful.  The only item that was different on successive days was the sausage/bacon/biscuit and gravy.  Waffles were good and cooked quickly, in about 2 min and 30 seconds.  Coffee is available in the lobby both am and pm.  Got a cookie one late evening at the front desk.  Other amenities I enjoyed:  complimentary newspapers in the lobby;  Wifi worked OK in the guest room. Computer in lobby worked well to get our flight boarding passes.Location was good, because it was relatively close to downtown Denver (by my perspective, since my home is in LA), and the 225 freeway made it easy to drive south to Colorado Springs.  Also, easy access to the airport.  Aurora was a nice suburb to stay in. Close to many shops, big mall, and restaurants by car, within 1-10 minutes.  Walking distance to 2 restaurants without having to cross the street.  Only had one or two minor problems. Housekeeping for got to change our bath towels one night, but easily got more from the front desk.  The other problem was that the guests next door had some kind of stereo or boom box, and they were playing it the last two nights we stayed there. We just turned on the TV and A/C and ignored it.  Thankfully, they shut it down by 11pm or so. Overall, a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded September 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2014</t>
+  </si>
+  <si>
+    <t>Went on a 4 night trip to Denver.  Went with a family of 3, including a 3 year old.  Staff was helpful, got us a pack 'n play for our child very quickly.  Had a room on the 2nd floor, near elevator.  Our room had 2 queen beds and still had plenty of room for crib.  
+Morning breakfast was plentiful.  The only item that was different on successive days was the sausage/bacon/biscuit and gravy.  Waffles were good and cooked quickly, in about 2 min and 30 seconds.  Coffee is available in the lobby both am and pm.  Got a cookie one late evening at the front desk.  
+Other amenities I enjoyed:  complimentary newspapers in the lobby;  Wifi worked OK in the guest room. Computer in lobby worked well to get our flight boarding passes.
+Location was good, because it was relatively close to downtown Denver (by my perspective, since my home is in LA), and the 225 freeway made it easy to drive south to Colorado Springs.  Also, easy access to the airport.  Aurora was a nice suburb to stay in. Close to many shops, big mall, and restaurants by car, within 1-10 minutes.  Walking distance to 2 restaurants without having to cross the street.  
+Only had one or two minor problems. Housekeeping for got to change our bath towels one night, but easily got more from the front desk.  The other problem was that the guests next door had...Went on a 4 night trip to Denver.  Went with a family of 3, including a 3 year old.  Staff was helpful, got us a pack 'n play for our child very quickly.  Had a room on the 2nd floor, near elevator.  Our room had 2 queen beds and still had plenty of room for crib.  Morning breakfast was plentiful.  The only item that was different on successive days was the sausage/bacon/biscuit and gravy.  Waffles were good and cooked quickly, in about 2 min and 30 seconds.  Coffee is available in the lobby both am and pm.  Got a cookie one late evening at the front desk.  Other amenities I enjoyed:  complimentary newspapers in the lobby;  Wifi worked OK in the guest room. Computer in lobby worked well to get our flight boarding passes.Location was good, because it was relatively close to downtown Denver (by my perspective, since my home is in LA), and the 225 freeway made it easy to drive south to Colorado Springs.  Also, easy access to the airport.  Aurora was a nice suburb to stay in. Close to many shops, big mall, and restaurants by car, within 1-10 minutes.  Walking distance to 2 restaurants without having to cross the street.  Only had one or two minor problems. Housekeeping for got to change our bath towels one night, but easily got more from the front desk.  The other problem was that the guests next door had some kind of stereo or boom box, and they were playing it the last two nights we stayed there. We just turned on the TV and A/C and ignored it.  Thankfully, they shut it down by 11pm or so. Overall, a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r219904168-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>219904168</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Basic hotel for the price</t>
+  </si>
+  <si>
+    <t>Hotel is right next to the 225 freeway, within 5 minutes of the Univ of CO hospital, and within 20 minutes of downtown Colorado. Area is not that great, just FYI but a plus is that there are multiple restaurants within walking distance of the hotel. The hotel itself is very outdated with a very small breakfast area, but has ample parking and the rooms are relatively clean. An ok place for a quick stay, but not my first choice for the area, however it is economical. Front staff was very nice upon check in, there are 3 floors total, and a mini fridge and a 70s style microwave in the room. Sink is separate from the toilet and shower. Coffee and hot tea available outside of breakfast hours, and bed was reasonably comfortable with both soft and firm pillows available. Very basic hotel.  Good water pressure in the shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Hotel is right next to the 225 freeway, within 5 minutes of the Univ of CO hospital, and within 20 minutes of downtown Colorado. Area is not that great, just FYI but a plus is that there are multiple restaurants within walking distance of the hotel. The hotel itself is very outdated with a very small breakfast area, but has ample parking and the rooms are relatively clean. An ok place for a quick stay, but not my first choice for the area, however it is economical. Front staff was very nice upon check in, there are 3 floors total, and a mini fridge and a 70s style microwave in the room. Sink is separate from the toilet and shower. Coffee and hot tea available outside of breakfast hours, and bed was reasonably comfortable with both soft and firm pillows available. Very basic hotel.  Good water pressure in the shower.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r214001306-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>214001306</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay for a week at this hotel. It was very clean and the rooms had a refrigerator and microwave along with a little separate sink. We much appreciated this since we were there for the whole week and wanted to keep our bottled water cold. The Continental breakfast was good as far as this kind of breakfast goes. The staff went out of their way to be accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay for a week at this hotel. It was very clean and the rooms had a refrigerator and microwave along with a little separate sink. We much appreciated this since we were there for the whole week and wanted to keep our bottled water cold. The Continental breakfast was good as far as this kind of breakfast goes. The staff went out of their way to be accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r201463472-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>201463472</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Ok for the price.</t>
+  </si>
+  <si>
+    <t>I stayed at this property for 3 days while on vacation. I chose this property because of the price and the location. I have stayed here in the past and was pleased. The good: The rooms are clean and big. My room had a refrigerator and micro wave. It is close to a great little diner called Rosies. It is close to the airport. What I would change: The computers in the business center. There are two in the lobby. I wanted to print my boarding pass but they were so infected with viruses I was unable to log in. The rooms were not very quiet. very thin walls. I turned on the fan at the window unit and it helped drown out the noise. They are doing construction on the interstate across the street and there is a fire station next door. That didn't help with the noise.Overall I had a good stay. I would recommend it if you are on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded April 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this property for 3 days while on vacation. I chose this property because of the price and the location. I have stayed here in the past and was pleased. The good: The rooms are clean and big. My room had a refrigerator and micro wave. It is close to a great little diner called Rosies. It is close to the airport. What I would change: The computers in the business center. There are two in the lobby. I wanted to print my boarding pass but they were so infected with viruses I was unable to log in. The rooms were not very quiet. very thin walls. I turned on the fan at the window unit and it helped drown out the noise. They are doing construction on the interstate across the street and there is a fire station next door. That didn't help with the noise.Overall I had a good stay. I would recommend it if you are on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r201105668-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>201105668</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>nice property for Denver area</t>
+  </si>
+  <si>
+    <t>This is a nice property, with large rooms.  There was a microwave and fridge.  The bathroom was large, but there is loose tile on the floor.  We thought that the grab bar should be located on the opposite end of the tub and not near the showerhead.     There are several restaurants within walking distance.  Rosie's Diner and Applebees  are across the parking lot.  Others require crossing busy streets.     A very nice breakfast but the breakfast area is in the lobby, so it was quite crowded.  Surprised that there wasn't a separate, larger room for the breakfast.     There is an elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice property, with large rooms.  There was a microwave and fridge.  The bathroom was large, but there is loose tile on the floor.  We thought that the grab bar should be located on the opposite end of the tub and not near the showerhead.     There are several restaurants within walking distance.  Rosie's Diner and Applebees  are across the parking lot.  Others require crossing busy streets.     A very nice breakfast but the breakfast area is in the lobby, so it was quite crowded.  Surprised that there wasn't a separate, larger room for the breakfast.     There is an elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r194538799-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>194538799</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t>But I wouldn't let my mother stay here!This place was a good deal for a small event with a small-ish payoff, so I wasn't feeling spendy. It's very convenient to Denver and to the interstate, as well as lots of restaurants and stores. I was able to get to the airport in a timely fashion. It has a sink, microwave, and refrigerator, which was pretty great.Room itself was ok. Very clean, but sort of damaged around the edges. Stained curtains. Quiet. The front desk staff was very responsive when I called down to report someone was smoking on the floor (and the whole hotel is non-smoking!). It took forever for the light to get very light in the bathroom, which is probably because they are using energy-saving bulbs, so that's cool with me. Good selection of channels on cable.The linens did seem nicer... five pillows and thicker bedspread, which was great. The heat was a window unit - not my favorite, but effective.Breakfast was provided, which was great. Good yogurt selection and bananas, as well as some breads and cereals (I never eat that stuff, so didn't pay very much attention).MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded April 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2014</t>
+  </si>
+  <si>
+    <t>But I wouldn't let my mother stay here!This place was a good deal for a small event with a small-ish payoff, so I wasn't feeling spendy. It's very convenient to Denver and to the interstate, as well as lots of restaurants and stores. I was able to get to the airport in a timely fashion. It has a sink, microwave, and refrigerator, which was pretty great.Room itself was ok. Very clean, but sort of damaged around the edges. Stained curtains. Quiet. The front desk staff was very responsive when I called down to report someone was smoking on the floor (and the whole hotel is non-smoking!). It took forever for the light to get very light in the bathroom, which is probably because they are using energy-saving bulbs, so that's cool with me. Good selection of channels on cable.The linens did seem nicer... five pillows and thicker bedspread, which was great. The heat was a window unit - not my favorite, but effective.Breakfast was provided, which was great. Good yogurt selection and bananas, as well as some breads and cereals (I never eat that stuff, so didn't pay very much attention).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r184737655-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>184737655</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Excellent Long Stay</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn Denver Southeast when transferring for a job.  It was everything I needed.  Plenty of space, a refrigerator, and microwave.  Breakfast was good.  But what made this a really enjoyable stay was the staff.  They were all awesome.  Particularly Pedro - who really went out of his way to make my stay enjoyable, and trouble-free.  He was very helpful with information about the area, and he even made me hot cookies.  I would thoroughly recommend this hotel - and I will be back in January when I move to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded November 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the Comfort Inn Denver Southeast when transferring for a job.  It was everything I needed.  Plenty of space, a refrigerator, and microwave.  Breakfast was good.  But what made this a really enjoyable stay was the staff.  They were all awesome.  Particularly Pedro - who really went out of his way to make my stay enjoyable, and trouble-free.  He was very helpful with information about the area, and he even made me hot cookies.  I would thoroughly recommend this hotel - and I will be back in January when I move to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r182919981-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>182919981</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Not a new one, but well kept</t>
+  </si>
+  <si>
+    <t>After 10 1/2 hours on the plane I arrived at the hotel. The manager at the front-desk was helpful and knowledgeable and I got a room I had asked for, downstairs, good WiFi. The hotel is not new, but kept clean and in order. Breakfast wa&lt;s better than expected, even scrambled eggs and sausages to compliment Bagel and Cream Cheese. Internet was fast and worked without any glitches. The bed was firm, two kinds of pillows to choose from, bathroom clean and working without problems. I would stay again without any reservations about the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2013</t>
+  </si>
+  <si>
+    <t>After 10 1/2 hours on the plane I arrived at the hotel. The manager at the front-desk was helpful and knowledgeable and I got a room I had asked for, downstairs, good WiFi. The hotel is not new, but kept clean and in order. Breakfast wa&lt;s better than expected, even scrambled eggs and sausages to compliment Bagel and Cream Cheese. Internet was fast and worked without any glitches. The bed was firm, two kinds of pillows to choose from, bathroom clean and working without problems. I would stay again without any reservations about the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r178969625-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>178969625</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>rather expensive, but beats doubletree on comfort.(about $20 higher than it needs to be)</t>
+  </si>
+  <si>
+    <t>I made my reservation on choiceprivileges.com (elite member here), I initially tried to get the advertised 1000.oo bonus point promotion that the property theoretically participates in online, but I got a 'sold out' message.(this struck me as odd, how do you 'sell out' of a points promotion?)but, moving on, according to choice, I got the absolute last room in the building.judging by the parking lot upon our arrival (on a Wednesday!), I believe it.one explanation for the higher rates was the flooding a few counties away, however, I got a room the previous week at the sleep inn for under $75 per night, my whole stay, during a concert, no less.so...but, yeah, last wednesady, there were a LOT of none available spots all thru the Denver metro area on choice-go figure.(price bumping during a disaster, however, is distasteful-this remark, is not aimed at this property in particular, but rather the entire Denver hotel industry )again, moving on.the last room, turned out to be the ADA room, and it was right around a benji with tax.yes, the ADA room was a c-note.
+(hrm....)however, good grief, was the bed comfortable, I mean, it was like a cloud.and the TV was nice, as well.the breakfast was bacon, scrambled eggs, and etc.nestle hot chocolate (no fan of nestle-huma rights but other than that, a good breakfast, that IMO, beats dennys.) its a bit tricky to get into parking.and it is RTD accessible-anyone who wants...I made my reservation on choiceprivileges.com (elite member here), I initially tried to get the advertised 1000.oo bonus point promotion that the property theoretically participates in online, but I got a 'sold out' message.(this struck me as odd, how do you 'sell out' of a points promotion?)but, moving on, according to choice, I got the absolute last room in the building.judging by the parking lot upon our arrival (on a Wednesday!), I believe it.one explanation for the higher rates was the flooding a few counties away, however, I got a room the previous week at the sleep inn for under $75 per night, my whole stay, during a concert, no less.so...but, yeah, last wednesady, there were a LOT of none available spots all thru the Denver metro area on choice-go figure.(price bumping during a disaster, however, is distasteful-this remark, is not aimed at this property in particular, but rather the entire Denver hotel industry )again, moving on.the last room, turned out to be the ADA room, and it was right around a benji with tax.yes, the ADA room was a c-note.(hrm....)however, good grief, was the bed comfortable, I mean, it was like a cloud.and the TV was nice, as well.the breakfast was bacon, scrambled eggs, and etc.nestle hot chocolate (no fan of nestle-huma rights but other than that, a good breakfast, that IMO, beats dennys.) its a bit tricky to get into parking.and it is RTD accessible-anyone who wants to avoid the excessive RTD skyride fares, from the airport, and intends to stay at this hotel, send me a private message, and I will brief you on how to access it via the 169L, and corresponding east side transfers.with all that said, this is a VERY GOOD $69=tax hotel room.its a so-so $100.oo one.I didn't have time to look at any fitness or pool facilities, if any.but it worked well, for intended travel to the airport the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>I made my reservation on choiceprivileges.com (elite member here), I initially tried to get the advertised 1000.oo bonus point promotion that the property theoretically participates in online, but I got a 'sold out' message.(this struck me as odd, how do you 'sell out' of a points promotion?)but, moving on, according to choice, I got the absolute last room in the building.judging by the parking lot upon our arrival (on a Wednesday!), I believe it.one explanation for the higher rates was the flooding a few counties away, however, I got a room the previous week at the sleep inn for under $75 per night, my whole stay, during a concert, no less.so...but, yeah, last wednesady, there were a LOT of none available spots all thru the Denver metro area on choice-go figure.(price bumping during a disaster, however, is distasteful-this remark, is not aimed at this property in particular, but rather the entire Denver hotel industry )again, moving on.the last room, turned out to be the ADA room, and it was right around a benji with tax.yes, the ADA room was a c-note.
+(hrm....)however, good grief, was the bed comfortable, I mean, it was like a cloud.and the TV was nice, as well.the breakfast was bacon, scrambled eggs, and etc.nestle hot chocolate (no fan of nestle-huma rights but other than that, a good breakfast, that IMO, beats dennys.) its a bit tricky to get into parking.and it is RTD accessible-anyone who wants...I made my reservation on choiceprivileges.com (elite member here), I initially tried to get the advertised 1000.oo bonus point promotion that the property theoretically participates in online, but I got a 'sold out' message.(this struck me as odd, how do you 'sell out' of a points promotion?)but, moving on, according to choice, I got the absolute last room in the building.judging by the parking lot upon our arrival (on a Wednesday!), I believe it.one explanation for the higher rates was the flooding a few counties away, however, I got a room the previous week at the sleep inn for under $75 per night, my whole stay, during a concert, no less.so...but, yeah, last wednesady, there were a LOT of none available spots all thru the Denver metro area on choice-go figure.(price bumping during a disaster, however, is distasteful-this remark, is not aimed at this property in particular, but rather the entire Denver hotel industry )again, moving on.the last room, turned out to be the ADA room, and it was right around a benji with tax.yes, the ADA room was a c-note.(hrm....)however, good grief, was the bed comfortable, I mean, it was like a cloud.and the TV was nice, as well.the breakfast was bacon, scrambled eggs, and etc.nestle hot chocolate (no fan of nestle-huma rights but other than that, a good breakfast, that IMO, beats dennys.) its a bit tricky to get into parking.and it is RTD accessible-anyone who wants to avoid the excessive RTD skyride fares, from the airport, and intends to stay at this hotel, send me a private message, and I will brief you on how to access it via the 169L, and corresponding east side transfers.with all that said, this is a VERY GOOD $69=tax hotel room.its a so-so $100.oo one.I didn't have time to look at any fitness or pool facilities, if any.but it worked well, for intended travel to the airport the next morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r176819797-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>176819797</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>Late Summer in Denver</t>
+  </si>
+  <si>
+    <t>We decided to stay at this location after reading that it had been remodeled and coupon found in hotel.com which reduced the price. Initial plans were to spend one night but after a very long day of sightseeing and liquid sunshine(rain) we decided to go back and stay a second day. The staff on both ocassions were friendly and attentive to our needs. The first night we stayed in a room with two queen beds and second nite with a king. Both rooms were clean with microwave and fridge.Proximy to restaurant(s) was in walking distance.  Will definitely consider for future trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>We decided to stay at this location after reading that it had been remodeled and coupon found in hotel.com which reduced the price. Initial plans were to spend one night but after a very long day of sightseeing and liquid sunshine(rain) we decided to go back and stay a second day. The staff on both ocassions were friendly and attentive to our needs. The first night we stayed in a room with two queen beds and second nite with a king. Both rooms were clean with microwave and fridge.Proximy to restaurant(s) was in walking distance.  Will definitely consider for future trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r174048580-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>174048580</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>AWESOME HOTEL GREAT STAY</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised at this hotel - our room was wonderful - we had reserved a king suite for our stay during the Solheim Cup - it's spaciousness was a godsend after spending long days at the event. Breakfasts were varied each day and the hotel staff were friendly - we had a wonderful stay and would stay again if ever in Aurora.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, General Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded August 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2013</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised at this hotel - our room was wonderful - we had reserved a king suite for our stay during the Solheim Cup - it's spaciousness was a godsend after spending long days at the event. Breakfasts were varied each day and the hotel staff were friendly - we had a wonderful stay and would stay again if ever in Aurora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r171679053-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>171679053</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Great Value, Pleasant Stay</t>
+  </si>
+  <si>
+    <t>I stayed here three nights and everything was great - close proximity to the highway, free parking, free WiFi, and breakfast.  I had a king room, which was spacious and very comfortable. More importantly, the room was clean.  Although it's next to the highway, it was very quiet.  As for some of the reviews that it's dated and tired, the hotel appeared pretty modern.  Another plus is that there are two restaurants in the hotel complex and there are many eating options nearby.  Breakfast is make your own and the staff in the dining area were very friendly and accommodating.  I'd definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I stayed here three nights and everything was great - close proximity to the highway, free parking, free WiFi, and breakfast.  I had a king room, which was spacious and very comfortable. More importantly, the room was clean.  Although it's next to the highway, it was very quiet.  As for some of the reviews that it's dated and tired, the hotel appeared pretty modern.  Another plus is that there are two restaurants in the hotel complex and there are many eating options nearby.  Breakfast is make your own and the staff in the dining area were very friendly and accommodating.  I'd definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r167915143-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>167915143</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Good value, excellent location</t>
+  </si>
+  <si>
+    <t>The lobby and check-in personnel are less sparkling that one would expect at a Hampton Inn or Marriott Courtyard, but when you get to your room there isn't much difference - except price.I was quoted $195 including tax at the nearby Marriott Fairfield Suites for a room with one bed and one sofabed.  Here, we paid $118 total for a two queen room with comfortable and clean carpeting, small fridge and microwave, excellent shower and very comfortable bedding.The free wifi worked fine.Rooms facing the north and northeast are quiet and face a small park area with mature trees.Breakfast is nothing special but if you want a more elaborate breakfast, there's a diner right next door.For dinner, don't even think about it - a Texas Roadhouse is diagonally across the street, two minutes' drive.  Great steaks and ribs.We slept well, enjoyed the room and saved 75 bucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby and check-in personnel are less sparkling that one would expect at a Hampton Inn or Marriott Courtyard, but when you get to your room there isn't much difference - except price.I was quoted $195 including tax at the nearby Marriott Fairfield Suites for a room with one bed and one sofabed.  Here, we paid $118 total for a two queen room with comfortable and clean carpeting, small fridge and microwave, excellent shower and very comfortable bedding.The free wifi worked fine.Rooms facing the north and northeast are quiet and face a small park area with mature trees.Breakfast is nothing special but if you want a more elaborate breakfast, there's a diner right next door.For dinner, don't even think about it - a Texas Roadhouse is diagonally across the street, two minutes' drive.  Great steaks and ribs.We slept well, enjoyed the room and saved 75 bucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r166203657-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>166203657</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Not bad but very tired hotel</t>
+  </si>
+  <si>
+    <t>We often stay at Comfort Inns and are usually well-pleased. This one, though, along with one in Colorado Springs were not nearly as nice as others at which we have stayed. The pros are the price, the very good included breakfast, convenient to the freeway, the decent WiFi. The cons were that this property looks pretty old and tired. The room had a fixture or two falling off the wall and torn upholstery. We were in an unfortunately noisy room, on the landing just above the open foyer, reception desk and breakfast room. I can't remember the room numbers but there are two such rooms that you should avoid. Both are located right outside the elevator on the 2nd floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We often stay at Comfort Inns and are usually well-pleased. This one, though, along with one in Colorado Springs were not nearly as nice as others at which we have stayed. The pros are the price, the very good included breakfast, convenient to the freeway, the decent WiFi. The cons were that this property looks pretty old and tired. The room had a fixture or two falling off the wall and torn upholstery. We were in an unfortunately noisy room, on the landing just above the open foyer, reception desk and breakfast room. I can't remember the room numbers but there are two such rooms that you should avoid. Both are located right outside the elevator on the 2nd floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r164155846-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>164155846</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!</t>
+  </si>
+  <si>
+    <t>We were in Colorado duing the recent forest fires....we called the Comfort Inn to see if they had any rooms available....the phone was answered by an outstanding customer service person by the name of Rita...not only did she have a room available, but also asked about our arrival time....we were about 2 hours ahead of check-in time....Rita said to come ahead and she'll see what she could do.  We arrived a few minutes later she already had us booked into a room....easy as that.  We travel a great deal to the Denver area and next month we won't even consider staying anywhere except the Comfort Inn....Rita was helpful, courteous and most of all had a wonderful attitutude towards everyone at the front desk.  What a wonderful experience!Thanks Rita!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Colorado duing the recent forest fires....we called the Comfort Inn to see if they had any rooms available....the phone was answered by an outstanding customer service person by the name of Rita...not only did she have a room available, but also asked about our arrival time....we were about 2 hours ahead of check-in time....Rita said to come ahead and she'll see what she could do.  We arrived a few minutes later she already had us booked into a room....easy as that.  We travel a great deal to the Denver area and next month we won't even consider staying anywhere except the Comfort Inn....Rita was helpful, courteous and most of all had a wonderful attitutude towards everyone at the front desk.  What a wonderful experience!Thanks Rita!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r153256707-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>153256707</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Aurora stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Inn's staff were pleasant and responded quickly to a maintenance issue.  Room was large, but furnishings are dingy.  The free breakfast had variety, and included do-it-yourself waffles, which are a good way to start the day. </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r153157044-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>153157044</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Hotel has free shuttle to airport. Staff and also shuttle driver were SO accomodating and helpful!! Great food-terrific</t>
+  </si>
+  <si>
+    <t>Hotel has free shuttle to airport. Staff and bus driver are all so helpful and friendly!! Great food for breakfast and they even "suggested" we take along extra fruit for the plane ride. I highly suggest this hotel. It even has a large hot-tub with tons of bubbles and large heated pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r151911530-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>151911530</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>great costumer service!</t>
+  </si>
+  <si>
+    <t>On our trip to Denver, I booked and pre paid the hotel stay for the days we were in town. There was no problem when we got there, and we checked in without any problems. They actually upgraded out hotel room, to a suite because they were over booked. Great service and we left there thinking we will come back whenever we want to travel to Denver again</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r147409986-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>147409986</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Comfort Inn on Illiff Ave-Aurora</t>
+  </si>
+  <si>
+    <t>Hotel is at a convenient location in Aurora -- close to food and to I-225. Some restaurants are within walking distance. Breakfast in the morning is helpful if you are in a hurry to be on your way. Was quiet, so was able to sleep, eventhough near a main road. I stayed here once before when arrivng new to the area. When I returned to te area, I chose to stay here since it was convenient to where I needed to be. Less traffic here than off 40th Avenue in Aurora. I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Hotel is at a convenient location in Aurora -- close to food and to I-225. Some restaurants are within walking distance. Breakfast in the morning is helpful if you are in a hurry to be on your way. Was quiet, so was able to sleep, eventhough near a main road. I stayed here once before when arrivng new to the area. When I returned to te area, I chose to stay here since it was convenient to where I needed to be. Less traffic here than off 40th Avenue in Aurora. I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r144980702-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>144980702</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Stay Away if You Value Your Comfort</t>
+  </si>
+  <si>
+    <t>The bed was comfortable enough, but the room was a horror story.  3 lamps in one corner.  No spare power outlets at all.  And when the internet went out, the front desk was USELESS.  Never again at ANY Choice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded November 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2012</t>
+  </si>
+  <si>
+    <t>The bed was comfortable enough, but the room was a horror story.  3 lamps in one corner.  No spare power outlets at all.  And when the internet went out, the front desk was USELESS.  Never again at ANY Choice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r144850940-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>144850940</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>Great Value, Good Location, Easy Access</t>
+  </si>
+  <si>
+    <t>This property to the south of Downtown Denver allows for easy access, convenient transportation to the Airport and a quiet sleeping environment. Ample parking.  Multiple restaurant choices nearby, no need to take the car out again after check-in.  A strongly recommended stay for those pulling off the road for the night or with business in the Denver area with their own wheels.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>This property to the south of Downtown Denver allows for easy access, convenient transportation to the Airport and a quiet sleeping environment. Ample parking.  Multiple restaurant choices nearby, no need to take the car out again after check-in.  A strongly recommended stay for those pulling off the road for the night or with business in the Denver area with their own wheels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r142883528-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>142883528</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was very good to us! our room was great! we had a subway right across the street for dinner. plus there was a diner right next door. it was clean and comfortable. very spacious! breakfast was good, and wifi was fast! i would definitly stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded November 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2012</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was very good to us! our room was great! we had a subway right across the street for dinner. plus there was a diner right next door. it was clean and comfortable. very spacious! breakfast was good, and wifi was fast! i would definitly stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r142507573-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>142507573</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Enjoyable experience</t>
+  </si>
+  <si>
+    <t>I booked my room through my Choice Hotel membership (800#), and as an 'elite' member, sweet Stephanie at the front desk upgraded my room for the two nights.  The corner room was big and comfortable (two windows!)... and the furnishings very nice.  The bed was very comfortable to me, and that upgrade did make me feel special... thank you!  I'm sorry I couldn't stay longer!It was in a fantastic location, right next to an Applebys and a cute retro diner... and close to the exit on I225... tho you did have to figure how to get into the parking lot (take the side street at the light and go in behind Appleby's).  Saw a lot of different restaurants in the immediate area on Iliff, but the grocery store was a distance.The breakfast was very good and they had two computers in the lobby for those of us without our own.   I just have to say that after a stay the nights before in Loveland where I had a refrigerator that froze everything, the old refrigerator here could have used some of that cold and was not the kind you could control.   That really was my only problem there.  Will stay again if I need to be in that area in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked my room through my Choice Hotel membership (800#), and as an 'elite' member, sweet Stephanie at the front desk upgraded my room for the two nights.  The corner room was big and comfortable (two windows!)... and the furnishings very nice.  The bed was very comfortable to me, and that upgrade did make me feel special... thank you!  I'm sorry I couldn't stay longer!It was in a fantastic location, right next to an Applebys and a cute retro diner... and close to the exit on I225... tho you did have to figure how to get into the parking lot (take the side street at the light and go in behind Appleby's).  Saw a lot of different restaurants in the immediate area on Iliff, but the grocery store was a distance.The breakfast was very good and they had two computers in the lobby for those of us without our own.   I just have to say that after a stay the nights before in Loveland where I had a refrigerator that froze everything, the old refrigerator here could have used some of that cold and was not the kind you could control.   That really was my only problem there.  Will stay again if I need to be in that area in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r142232782-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>142232782</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>staff problems</t>
+  </si>
+  <si>
+    <t>We dropped my friend off at DIA at 11:45PM, and rather than drive home and fall asleep at the wheel we stopped at this hotel on Iliff. The bed was comfortable, sheets were clean, bathroom was spotless, but housekeeping apparently decided that 7:30AM is a perfectly acceptable time to vacuum the hallways with an obnoxiously loud vacuum cleaner. They stopped after a few minutes, however, and my wife and I went back to sleep. Until 8:15AM, when they decided to vacuum the entire hallway, a process that apparently takes almost an hour.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We dropped my friend off at DIA at 11:45PM, and rather than drive home and fall asleep at the wheel we stopped at this hotel on Iliff. The bed was comfortable, sheets were clean, bathroom was spotless, but housekeeping apparently decided that 7:30AM is a perfectly acceptable time to vacuum the hallways with an obnoxiously loud vacuum cleaner. They stopped after a few minutes, however, and my wife and I went back to sleep. Until 8:15AM, when they decided to vacuum the entire hallway, a process that apparently takes almost an hour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r138037240-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>138037240</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Excellent stay!</t>
+  </si>
+  <si>
+    <t>We stayed overnight in August 2012. The room we got was very clean and spacious. Wifi worked well and was complimentary. The breakfast was outstanding. They give a great selection of food, such as eggs, sausages, 2 kinds of waffles, yogurt, pastries. Overall it was a very pleasant experience. The price is reasonable as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2012</t>
+  </si>
+  <si>
+    <t>We stayed overnight in August 2012. The room we got was very clean and spacious. Wifi worked well and was complimentary. The breakfast was outstanding. They give a great selection of food, such as eggs, sausages, 2 kinds of waffles, yogurt, pastries. Overall it was a very pleasant experience. The price is reasonable as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r136105796-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>136105796</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel, excellent value!</t>
+  </si>
+  <si>
+    <t>I stayed here, staff was friendly, secure location, good breakfast, and a clean room.  I was upset that I didn't extend my stay and had to move to another hotel because the Comfort Inn was booked. I will try and get back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here, staff was friendly, secure location, good breakfast, and a clean room.  I was upset that I didn't extend my stay and had to move to another hotel because the Comfort Inn was booked. I will try and get back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r135162555-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>135162555</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>This has to be one of the nicest Comfort Inn’s I’ve been to. I travel often so cleanliness and comfort is always an issue. When I arrived I was please to see that they had some renovations done to this hotel. I found this hotel to have a great welcoming staff. And more importantly they were very knowledgeable of their surrounding location. I stayed about a week and was glad to have breakfast. To my surprise they had a wide verity of things to eat. It was all very fresh everyday with 3 types of fruit. And fresh coffee all day. This was a very pleasant stay and will definitely be coming back to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This has to be one of the nicest Comfort Inn’s I’ve been to. I travel often so cleanliness and comfort is always an issue. When I arrived I was please to see that they had some renovations done to this hotel. I found this hotel to have a great welcoming staff. And more importantly they were very knowledgeable of their surrounding location. I stayed about a week and was glad to have breakfast. To my surprise they had a wide verity of things to eat. It was all very fresh everyday with 3 types of fruit. And fresh coffee all day. This was a very pleasant stay and will definitely be coming back to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r133956248-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>133956248</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>So So hotel - need to upgrade those old bedspreads!</t>
+  </si>
+  <si>
+    <t>I recently made the treck from Mesa, AZ to Denver to visit my niece who attends college there. I usually stay at La Quinta because they allow my pet and do not charge a fee. Because I didn't bring her on this trip (and because the nearby La Quinta was $20 higher!) I picked this Comfort Inn right near my niece. FIRST, the location is great. It's near restaurants and close to the highway. Real easy to find things too. The desk staff were helpful and recommended a great place to eat after a long day on the road. The room; however, was very.... hmmm.... OUTDATED! They still have the old fashioned gold colored bedspreads that go all the way up to the pillows... GROSS! The first thing I did was throw those old things in the corner of the room! The bed wasn't very comfortable honestly either. It wasn't terrible though. Cleanliness was OK, but there was a musty, stale kind of odor in the room the entire time. The same odor was in the hallway too. Never could figure out where the smell was coming from. Overall it wasn't a bad stay.. but it wasn't a great one either. If I had my pet with me, there's no way I would stay here and pay an extra $15 bucks a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>I recently made the treck from Mesa, AZ to Denver to visit my niece who attends college there. I usually stay at La Quinta because they allow my pet and do not charge a fee. Because I didn't bring her on this trip (and because the nearby La Quinta was $20 higher!) I picked this Comfort Inn right near my niece. FIRST, the location is great. It's near restaurants and close to the highway. Real easy to find things too. The desk staff were helpful and recommended a great place to eat after a long day on the road. The room; however, was very.... hmmm.... OUTDATED! They still have the old fashioned gold colored bedspreads that go all the way up to the pillows... GROSS! The first thing I did was throw those old things in the corner of the room! The bed wasn't very comfortable honestly either. It wasn't terrible though. Cleanliness was OK, but there was a musty, stale kind of odor in the room the entire time. The same odor was in the hallway too. Never could figure out where the smell was coming from. Overall it wasn't a bad stay.. but it wasn't a great one either. If I had my pet with me, there's no way I would stay here and pay an extra $15 bucks a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r132925619-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132925619</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Another Tired, Worn Denver Comfort Inn. Seriously.</t>
+  </si>
+  <si>
+    <t>You guys can do way better than this.  I had the "suite," which was giant, but made no sense.  I'll get to that in a minute. But there was a 1970s microwave bolted onto the wet bar that looked like it'd seen better days.  Other fixtures were equally dated, but the carpet was new. It smelled moldy or sweaty, and the windows were creepy--torn screen, poor curtains. Old bed. Old furnishings. I get that you can't refurbish every year, but come on, this bathroom and the furniture needed serious updates.  Now for the confusing room. The king bed was facing a nice, big tv.  At a 90-degree right angle to the bed, a "sitting area" with a pullout couch...facing a tv. so I could theoretically watch two tvs at once. weird. the best part?  an absoutely terrific desk chair. I liked that, a lot. And again, newer carpet. Debbie, the afternoon clerk, was kind of scattered but helpful. I walked into, and then out of, the Diner adjacent to this property. I could not stand the foul, old grease smell. Too bad, too, bcause it looked like a fun place.  The Applebees adjacent to the property had about six ppl in the bar, and one tableful of ppl, but the muzak was so incredibly loud I could not hear the baseball game I was listening to on my iphone...through my earphones!!!! When suggested they turn it down, was told "the...You guys can do way better than this.  I had the "suite," which was giant, but made no sense.  I'll get to that in a minute. But there was a 1970s microwave bolted onto the wet bar that looked like it'd seen better days.  Other fixtures were equally dated, but the carpet was new. It smelled moldy or sweaty, and the windows were creepy--torn screen, poor curtains. Old bed. Old furnishings. I get that you can't refurbish every year, but come on, this bathroom and the furniture needed serious updates.  Now for the confusing room. The king bed was facing a nice, big tv.  At a 90-degree right angle to the bed, a "sitting area" with a pullout couch...facing a tv. so I could theoretically watch two tvs at once. weird. the best part?  an absoutely terrific desk chair. I liked that, a lot. And again, newer carpet. Debbie, the afternoon clerk, was kind of scattered but helpful. I walked into, and then out of, the Diner adjacent to this property. I could not stand the foul, old grease smell. Too bad, too, bcause it looked like a fun place.  The Applebees adjacent to the property had about six ppl in the bar, and one tableful of ppl, but the muzak was so incredibly loud I could not hear the baseball game I was listening to on my iphone...through my earphones!!!! When suggested they turn it down, was told "the other patrons..." yadayadayada.  A lack of muzak clearly would have ruined their experience?!?!?  I know this is beyond their scope, but the breakfast bar was completely overrun by softball team, so eating options limited or zilch for many fellow guests. I'm just tired of old, tired Comfort Inns in the greater Denver area. Please read my bio (I think it's on here somewhere).  I'm also XCtraveler.  I have driven thrice around the US and Canada more than 7K miles each time, staying almost exclusively at Comfort Inns. I'm not aware of a metro area where so many are so beaten down.  I'm thinking of making a competitor my booking of choice. THERE IS ANOTHER ISSUE with Choice. I'm not sure what's going on at this group, but it's getting more frictious (?) to deal with this chain. Never used to be, and I'm thinking the economy must be it. three years ago these ppl bent over backwards for me and my kids on our cross country trips. Now they act like adversaries.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>You guys can do way better than this.  I had the "suite," which was giant, but made no sense.  I'll get to that in a minute. But there was a 1970s microwave bolted onto the wet bar that looked like it'd seen better days.  Other fixtures were equally dated, but the carpet was new. It smelled moldy or sweaty, and the windows were creepy--torn screen, poor curtains. Old bed. Old furnishings. I get that you can't refurbish every year, but come on, this bathroom and the furniture needed serious updates.  Now for the confusing room. The king bed was facing a nice, big tv.  At a 90-degree right angle to the bed, a "sitting area" with a pullout couch...facing a tv. so I could theoretically watch two tvs at once. weird. the best part?  an absoutely terrific desk chair. I liked that, a lot. And again, newer carpet. Debbie, the afternoon clerk, was kind of scattered but helpful. I walked into, and then out of, the Diner adjacent to this property. I could not stand the foul, old grease smell. Too bad, too, bcause it looked like a fun place.  The Applebees adjacent to the property had about six ppl in the bar, and one tableful of ppl, but the muzak was so incredibly loud I could not hear the baseball game I was listening to on my iphone...through my earphones!!!! When suggested they turn it down, was told "the...You guys can do way better than this.  I had the "suite," which was giant, but made no sense.  I'll get to that in a minute. But there was a 1970s microwave bolted onto the wet bar that looked like it'd seen better days.  Other fixtures were equally dated, but the carpet was new. It smelled moldy or sweaty, and the windows were creepy--torn screen, poor curtains. Old bed. Old furnishings. I get that you can't refurbish every year, but come on, this bathroom and the furniture needed serious updates.  Now for the confusing room. The king bed was facing a nice, big tv.  At a 90-degree right angle to the bed, a "sitting area" with a pullout couch...facing a tv. so I could theoretically watch two tvs at once. weird. the best part?  an absoutely terrific desk chair. I liked that, a lot. And again, newer carpet. Debbie, the afternoon clerk, was kind of scattered but helpful. I walked into, and then out of, the Diner adjacent to this property. I could not stand the foul, old grease smell. Too bad, too, bcause it looked like a fun place.  The Applebees adjacent to the property had about six ppl in the bar, and one tableful of ppl, but the muzak was so incredibly loud I could not hear the baseball game I was listening to on my iphone...through my earphones!!!! When suggested they turn it down, was told "the other patrons..." yadayadayada.  A lack of muzak clearly would have ruined their experience?!?!?  I know this is beyond their scope, but the breakfast bar was completely overrun by softball team, so eating options limited or zilch for many fellow guests. I'm just tired of old, tired Comfort Inns in the greater Denver area. Please read my bio (I think it's on here somewhere).  I'm also XCtraveler.  I have driven thrice around the US and Canada more than 7K miles each time, staying almost exclusively at Comfort Inns. I'm not aware of a metro area where so many are so beaten down.  I'm thinking of making a competitor my booking of choice. THERE IS ANOTHER ISSUE with Choice. I'm not sure what's going on at this group, but it's getting more frictious (?) to deal with this chain. Never used to be, and I'm thinking the economy must be it. three years ago these ppl bent over backwards for me and my kids on our cross country trips. Now they act like adversaries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r130365647-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>130365647</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>This was our first trip to the Denver area and needed a hotel in the Aurora area. The hotel had a great location - near restaurants, highways, easy to get around(with help of GPS). This is a non-smoking hotel with a penalty (I think $150) for smoking inside. The first room we were given reeked of cigarette smoke. We asked to be moved and were given the same type room on the same floor. NO SMELL. The rooms are a little tired, but comfortable beds, a microwave, refrigerator and coffee maker. The hotel also serves a hot breakfast. This was a problem. They only have 5 tables for a 3 story hotel. On Saturday, people were trying to eat breakfast standing up, at the computers - anywhere they could. You could not get to the food easily and when you did, the eggs and bacon and coffee were empty. No sign of help refilling. We chose to eat out. Sunday, people must have slept in later. No problem getting a table. Not a bad place to stay. Freshly made cookies each afternoon!MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded June 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2012</t>
+  </si>
+  <si>
+    <t>This was our first trip to the Denver area and needed a hotel in the Aurora area. The hotel had a great location - near restaurants, highways, easy to get around(with help of GPS). This is a non-smoking hotel with a penalty (I think $150) for smoking inside. The first room we were given reeked of cigarette smoke. We asked to be moved and were given the same type room on the same floor. NO SMELL. The rooms are a little tired, but comfortable beds, a microwave, refrigerator and coffee maker. The hotel also serves a hot breakfast. This was a problem. They only have 5 tables for a 3 story hotel. On Saturday, people were trying to eat breakfast standing up, at the computers - anywhere they could. You could not get to the food easily and when you did, the eggs and bacon and coffee were empty. No sign of help refilling. We chose to eat out. Sunday, people must have slept in later. No problem getting a table. Not a bad place to stay. Freshly made cookies each afternoon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r121210910-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>121210910</t>
+  </si>
+  <si>
+    <t>11/29/2011</t>
+  </si>
+  <si>
+    <t>A nice night along I-225</t>
+  </si>
+  <si>
+    <t>I recently had a Doctor's Appt. in the area and needed a place to stay overnight and The Comfort Inn was a great place to stay.  I enjoyed the restaurants within walking distance of the hotel and the highway wasn't noticable from my room.  Breakfast in the lobby was good the next morning and I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded December 1, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2011</t>
+  </si>
+  <si>
+    <t>I recently had a Doctor's Appt. in the area and needed a place to stay overnight and The Comfort Inn was a great place to stay.  I enjoyed the restaurants within walking distance of the hotel and the highway wasn't noticable from my room.  Breakfast in the lobby was good the next morning and I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r120361441-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>120361441</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>Good place to rest</t>
+  </si>
+  <si>
+    <t>I go on alot of business trips and I always try to stay in a hotel operated by Choice Hotels.  You are never disappointed in a Comfort Inn.  Always a hot breakfast to get you up and going and the beds are always comfortable.  I especially like that you have your own coffee maker, fridge and microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded November 18, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2011</t>
+  </si>
+  <si>
+    <t>I go on alot of business trips and I always try to stay in a hotel operated by Choice Hotels.  You are never disappointed in a Comfort Inn.  Always a hot breakfast to get you up and going and the beds are always comfortable.  I especially like that you have your own coffee maker, fridge and microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r119004214-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>119004214</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>EXCELLANT VALUE&amp;SERVICE</t>
+  </si>
+  <si>
+    <t>Great staff and the rooms were spacious and clean.Much better free breakfast than the average economy hotel. We reserved a crib and to our amazement it was actually  in the room when we arrived.Will definitely stay here again if I travel to Denver again.MoreShow less</t>
+  </si>
+  <si>
+    <t>comfortinndenverse, Manager at Comfort Inn Denver Southeast Area, responded to this reviewResponded November 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2011</t>
+  </si>
+  <si>
+    <t>Great staff and the rooms were spacious and clean.Much better free breakfast than the average economy hotel. We reserved a crib and to our amazement it was actually  in the room when we arrived.Will definitely stay here again if I travel to Denver again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r116491801-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>116491801</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>lovely place</t>
+  </si>
+  <si>
+    <t>Very conveniently located with very polite front desk and  the best breakfast I ever have experienced  so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Very conveniently located with very polite front desk and  the best breakfast I ever have experienced  so far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r115789001-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>115789001</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>Mini-family reunion at Comfort Inn, Aurora CO</t>
+  </si>
+  <si>
+    <t>We had a mini-family reunion in Denver, Co and we stayed at the Comfort Inn, Southeast Aurora.  The rooms were clean and comfortable. The staff were always helpful and friendly.  Breakfast was included, and there was something for everyone; hot bacon, sausage and eggs; a waffle maker; cereals &amp; fruit, and much more.  Many places to eat and shop are within close proximity.  I would recommend staying on the rear side of the property where you are very likely to see a bunny hopping by and nibbling on the grass!  Eat at Rosie's Diner, located a stone's throw away.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a mini-family reunion in Denver, Co and we stayed at the Comfort Inn, Southeast Aurora.  The rooms were clean and comfortable. The staff were always helpful and friendly.  Breakfast was included, and there was something for everyone; hot bacon, sausage and eggs; a waffle maker; cereals &amp; fruit, and much more.  Many places to eat and shop are within close proximity.  I would recommend staying on the rear side of the property where you are very likely to see a bunny hopping by and nibbling on the grass!  Eat at Rosie's Diner, located a stone's throw away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r114812757-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>114812757</t>
+  </si>
+  <si>
+    <t>06/27/2011</t>
+  </si>
+  <si>
+    <t>Great Suite</t>
+  </si>
+  <si>
+    <t>I reserved the suite for my family as they were moving me across the county. The suite was GREAT. There were separate rooms and a pull out couch that accommodated everyone perfectly. Breakfast was also reasonable and acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I reserved the suite for my family as they were moving me across the county. The suite was GREAT. There were separate rooms and a pull out couch that accommodated everyone perfectly. Breakfast was also reasonable and acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r88146546-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>88146546</t>
+  </si>
+  <si>
+    <t>11/24/2010</t>
+  </si>
+  <si>
+    <t>Small, cozy, friendly hotel.  Always enjoy our stay.</t>
+  </si>
+  <si>
+    <t>This is our favorite of the Choice Hotels.  The staff is helpful and available.  The rooms are comfortable and we like the small, cozy atmosphere.  The hotel is very conveniently located next to the highway and walking distance to several great restaurants.  We have stayed here many times and will continue to do so.  It is not fancy, but is a great value.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r82222360-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>82222360</t>
+  </si>
+  <si>
+    <t>10/05/2010</t>
+  </si>
+  <si>
+    <t>Excellent room, great service, good location, restaurants nearby.</t>
+  </si>
+  <si>
+    <t>The front staff was very accomodating and efficient. The room was clean and comfortable. The restaurants were very close. Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r82069550-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>82069550</t>
+  </si>
+  <si>
+    <t>10/04/2010</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Came to this hotel to get away. I was amazed by the service of the staff. Check in and Check out was easy. Breakfast was good and the room was quite and cozy. I was pleased to see that they had mini fridges and a microwave in the room. I will definitly come back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r61127886-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>61127886</t>
+  </si>
+  <si>
+    <t>04/12/2010</t>
+  </si>
+  <si>
+    <t>BED BUGS!</t>
+  </si>
+  <si>
+    <t>Found large bed bugs in both beds and pillow, killed them, full of blood. Had to pack up and leave with family and newborn baby to find another hotel in middle of night. Front desk wasn't quick to refund money, stated "I don't want to wake up my manager, he's sleeping." No apology or follow up call.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r51007149-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>51007149</t>
+  </si>
+  <si>
+    <t>12/10/2009</t>
+  </si>
+  <si>
+    <t>Military not welcomed!</t>
+  </si>
+  <si>
+    <t>Comfort inn is a nice place to stay but staff at store on illif Aurora co is very poor. Ive been overseas 3 times and come to Denver to visit and find out Americans have no compassion. I stayed at this hotel because I had 1 too many drinks and did not want to drive. Coming into hotel half drunk I was asked to sign paper work, not explained to me, that requires 100 dollar deposit that states if u smoke in the room they charge u 75 dollars.  I rented non smoking room because no smoking was avaliable. The rude lady at front desk found a cup with 3cigg butts in it and of course charged me 75 dollars. To the comfort inn in Aurora I hope u sleep well at night knowing u stole money from me. Asking a intoxicated man to sign paperwork to extract money from him isn't smart business. I don't exspect for comfort inn to reply because they would actually have to care. Mr. SALAZAR Anyone looking to respond to this I can be reached at [--]P.S.  I HEAR RED LION HOTEL IS CLOSER TO DIA AND ACCEPT MILITARY PERSONEL WITH OPEN ARMS.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort inn is a nice place to stay but staff at store on illif Aurora co is very poor. Ive been overseas 3 times and come to Denver to visit and find out Americans have no compassion. I stayed at this hotel because I had 1 too many drinks and did not want to drive. Coming into hotel half drunk I was asked to sign paper work, not explained to me, that requires 100 dollar deposit that states if u smoke in the room they charge u 75 dollars.  I rented non smoking room because no smoking was avaliable. The rude lady at front desk found a cup with 3cigg butts in it and of course charged me 75 dollars. To the comfort inn in Aurora I hope u sleep well at night knowing u stole money from me. Asking a intoxicated man to sign paperwork to extract money from him isn't smart business. I don't exspect for comfort inn to reply because they would actually have to care. Mr. SALAZAR Anyone looking to respond to this I can be reached at [--]P.S.  I HEAR RED LION HOTEL IS CLOSER TO DIA AND ACCEPT MILITARY PERSONEL WITH OPEN ARMS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r32549149-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>32549149</t>
+  </si>
+  <si>
+    <t>06/17/2009</t>
+  </si>
+  <si>
+    <t>as before, not bad for the money</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this hotel.  The first time was in July, 2005 (see earlier review).  I booked a five-night stay via a travel website, and paid a nightly rate which was advertised at a 50% discount from the "regular" rate.  I would say that the discounted rate is the fair price to pay for staying at this facility.
+If you're looking for three-star or higher accomodations, look elsewhere; this is definitely not a Hyatt, Marriott or Hampton Inn.  However, the staff was pleasant and helpful, the room was clean (including the bathroom/shower), and the bed was comfortable.  The complimentary breakfast was tasty, well-stocked, and sufficient to start the day.
+The hallways, however, reek of cigarette smoke, even in sections where there are only non-smoking rooms.  We also found that while our room was clean, there was a persistent musty odor, which was only worsened by turning on the wall-unit fan.  With the pleasantly cool evenings, we were not interested in turning on the air conditioning, so being on the third floor, we opened the window to let in some fresh, cool Rocky Mountain air!  
+Rosie's Diner, which is not affiliated with the hotel but is an easy walk across the parking lot, continues to serve up delicious chow, with portion that are almost too big!  However, Rosie's closes at 9:00 PM, but there are other restaurant choices very close by.
+In summary, this hotel was a...This is my second time staying at this hotel.  The first time was in July, 2005 (see earlier review).  I booked a five-night stay via a travel website, and paid a nightly rate which was advertised at a 50% discount from the "regular" rate.  I would say that the discounted rate is the fair price to pay for staying at this facility.If you're looking for three-star or higher accomodations, look elsewhere; this is definitely not a Hyatt, Marriott or Hampton Inn.  However, the staff was pleasant and helpful, the room was clean (including the bathroom/shower), and the bed was comfortable.  The complimentary breakfast was tasty, well-stocked, and sufficient to start the day.The hallways, however, reek of cigarette smoke, even in sections where there are only non-smoking rooms.  We also found that while our room was clean, there was a persistent musty odor, which was only worsened by turning on the wall-unit fan.  With the pleasantly cool evenings, we were not interested in turning on the air conditioning, so being on the third floor, we opened the window to let in some fresh, cool Rocky Mountain air!  Rosie's Diner, which is not affiliated with the hotel but is an easy walk across the parking lot, continues to serve up delicious chow, with portion that are almost too big!  However, Rosie's closes at 9:00 PM, but there are other restaurant choices very close by.In summary, this hotel was a comfortable, quiet place in which to sleep, after long days of visiting family and touring around the area.  It is definitely a "no-frills" property, which could use some maintenance attention (changing a/c filters, cleaning the coils, etc.).MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>This is my second time staying at this hotel.  The first time was in July, 2005 (see earlier review).  I booked a five-night stay via a travel website, and paid a nightly rate which was advertised at a 50% discount from the "regular" rate.  I would say that the discounted rate is the fair price to pay for staying at this facility.
+If you're looking for three-star or higher accomodations, look elsewhere; this is definitely not a Hyatt, Marriott or Hampton Inn.  However, the staff was pleasant and helpful, the room was clean (including the bathroom/shower), and the bed was comfortable.  The complimentary breakfast was tasty, well-stocked, and sufficient to start the day.
+The hallways, however, reek of cigarette smoke, even in sections where there are only non-smoking rooms.  We also found that while our room was clean, there was a persistent musty odor, which was only worsened by turning on the wall-unit fan.  With the pleasantly cool evenings, we were not interested in turning on the air conditioning, so being on the third floor, we opened the window to let in some fresh, cool Rocky Mountain air!  
+Rosie's Diner, which is not affiliated with the hotel but is an easy walk across the parking lot, continues to serve up delicious chow, with portion that are almost too big!  However, Rosie's closes at 9:00 PM, but there are other restaurant choices very close by.
+In summary, this hotel was a...This is my second time staying at this hotel.  The first time was in July, 2005 (see earlier review).  I booked a five-night stay via a travel website, and paid a nightly rate which was advertised at a 50% discount from the "regular" rate.  I would say that the discounted rate is the fair price to pay for staying at this facility.If you're looking for three-star or higher accomodations, look elsewhere; this is definitely not a Hyatt, Marriott or Hampton Inn.  However, the staff was pleasant and helpful, the room was clean (including the bathroom/shower), and the bed was comfortable.  The complimentary breakfast was tasty, well-stocked, and sufficient to start the day.The hallways, however, reek of cigarette smoke, even in sections where there are only non-smoking rooms.  We also found that while our room was clean, there was a persistent musty odor, which was only worsened by turning on the wall-unit fan.  With the pleasantly cool evenings, we were not interested in turning on the air conditioning, so being on the third floor, we opened the window to let in some fresh, cool Rocky Mountain air!  Rosie's Diner, which is not affiliated with the hotel but is an easy walk across the parking lot, continues to serve up delicious chow, with portion that are almost too big!  However, Rosie's closes at 9:00 PM, but there are other restaurant choices very close by.In summary, this hotel was a comfortable, quiet place in which to sleep, after long days of visiting family and touring around the area.  It is definitely a "no-frills" property, which could use some maintenance attention (changing a/c filters, cleaning the coils, etc.).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r6480166-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>6480166</t>
+  </si>
+  <si>
+    <t>12/20/2006</t>
+  </si>
+  <si>
+    <t>Be prepared...</t>
+  </si>
+  <si>
+    <t>I came here in an emergency, due to the snowstorm, the rooms were reasonable and adequate. Services in the other hand, front desk could not help me on three different problems. First, could not recommend a taxi or cab service to the airport, "i have no idea". Second, wanted to know of an electronic store, once again, "I have no idea" and lastly I could not check in due to my reservation being lost, once I produced a reservation number, magically my reservation appeared within seconds. Very poor front desk.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r5773824-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>5773824</t>
+  </si>
+  <si>
+    <t>09/05/2006</t>
+  </si>
+  <si>
+    <t>Wanted to like it</t>
+  </si>
+  <si>
+    <t>I wanted to like this hotel. The breakfast was good. The rooms have a refrigerator &amp; microwave.  They offer rooms with 2 queen beds. Our room with a king was very large. There is a long counter in the bathroom so everyone could lay out their stuff.There is a pc in the lobby that we used several times a day to check our email.  The hotel does not have a pool.The only thing that may keep me from staying there again next month is the loud room air conditioning unit. It woke us up as it kept going on &amp; off during the night.  On the last night, we just slept with our window open &amp; that was ok.The other thing about the air conditioning was that it had a funky, almost mildew smell when it ran.   There were enough good things that I will probably stay here again next month and give it another try.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wanted to like this hotel. The breakfast was good. The rooms have a refrigerator &amp; microwave.  They offer rooms with 2 queen beds. Our room with a king was very large. There is a long counter in the bathroom so everyone could lay out their stuff.There is a pc in the lobby that we used several times a day to check our email.  The hotel does not have a pool.The only thing that may keep me from staying there again next month is the loud room air conditioning unit. It woke us up as it kept going on &amp; off during the night.  On the last night, we just slept with our window open &amp; that was ok.The other thing about the air conditioning was that it had a funky, almost mildew smell when it ran.   There were enough good things that I will probably stay here again next month and give it another try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d85374-r3253907-Comfort_Inn_Denver_Southeast_Area-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>3253907</t>
+  </si>
+  <si>
+    <t>03/04/2005</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>I stayed here only one night while in Denver area on business.  The hotel was easy to find with many restaurants in walking distance.  There was a small refrigerator and a small microwave in the room as well as a coffee maker and table and two chairs with a King bed.  The room was quiet and clean.  The staff were very courteous and helpful.  The free breakfast was to make  your own waffle. Fine if that is what you want.  This was adequate for a brief business stay.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2673,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2705,6806 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>152</v>
+      </c>
+      <c r="X19" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>152</v>
+      </c>
+      <c r="X26" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>152</v>
+      </c>
+      <c r="X27" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>152</v>
+      </c>
+      <c r="X28" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>213</v>
+      </c>
+      <c r="O29" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>214</v>
+      </c>
+      <c r="X29" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>214</v>
+      </c>
+      <c r="X30" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>213</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>214</v>
+      </c>
+      <c r="X31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>235</v>
+      </c>
+      <c r="X32" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>243</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>243</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>270</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>271</v>
+      </c>
+      <c r="X38" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" t="s">
+        <v>276</v>
+      </c>
+      <c r="K39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s">
+        <v>278</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>270</v>
+      </c>
+      <c r="O39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>271</v>
+      </c>
+      <c r="X39" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>285</v>
+      </c>
+      <c r="O40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" t="s">
+        <v>290</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" t="s">
+        <v>296</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" t="s">
+        <v>302</v>
+      </c>
+      <c r="L43" t="s">
+        <v>303</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>291</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>305</v>
+      </c>
+      <c r="J44" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" t="s">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s">
+        <v>308</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>297</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>310</v>
+      </c>
+      <c r="J45" t="s">
+        <v>311</v>
+      </c>
+      <c r="K45" t="s">
+        <v>312</v>
+      </c>
+      <c r="L45" t="s">
+        <v>313</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>297</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>316</v>
+      </c>
+      <c r="J46" t="s">
+        <v>317</v>
+      </c>
+      <c r="K46" t="s">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s">
+        <v>319</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>297</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>322</v>
+      </c>
+      <c r="J47" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" t="s">
+        <v>325</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>326</v>
+      </c>
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>327</v>
+      </c>
+      <c r="X47" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>327</v>
+      </c>
+      <c r="X48" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>327</v>
+      </c>
+      <c r="X49" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>327</v>
+      </c>
+      <c r="X50" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>335</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>327</v>
+      </c>
+      <c r="X52" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s">
+        <v>364</v>
+      </c>
+      <c r="L53" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>366</v>
+      </c>
+      <c r="X53" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>369</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>370</v>
+      </c>
+      <c r="J54" t="s">
+        <v>371</v>
+      </c>
+      <c r="K54" t="s">
+        <v>372</v>
+      </c>
+      <c r="L54" t="s">
+        <v>373</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>374</v>
+      </c>
+      <c r="O54" t="s">
+        <v>76</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s">
+        <v>380</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>381</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>366</v>
+      </c>
+      <c r="X55" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>384</v>
+      </c>
+      <c r="J56" t="s">
+        <v>385</v>
+      </c>
+      <c r="K56" t="s">
+        <v>386</v>
+      </c>
+      <c r="L56" t="s">
+        <v>387</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>388</v>
+      </c>
+      <c r="X56" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>392</v>
+      </c>
+      <c r="J57" t="s">
+        <v>393</v>
+      </c>
+      <c r="K57" t="s">
+        <v>394</v>
+      </c>
+      <c r="L57" t="s">
+        <v>395</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>374</v>
+      </c>
+      <c r="O57" t="s">
+        <v>64</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>388</v>
+      </c>
+      <c r="X57" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>398</v>
+      </c>
+      <c r="J58" t="s">
+        <v>399</v>
+      </c>
+      <c r="K58" t="s">
+        <v>400</v>
+      </c>
+      <c r="L58" t="s">
+        <v>401</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>403</v>
+      </c>
+      <c r="J59" t="s">
+        <v>404</v>
+      </c>
+      <c r="K59" t="s">
+        <v>405</v>
+      </c>
+      <c r="L59" t="s">
+        <v>406</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>407</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>408</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>409</v>
+      </c>
+      <c r="J60" t="s">
+        <v>410</v>
+      </c>
+      <c r="K60" t="s">
+        <v>411</v>
+      </c>
+      <c r="L60" t="s">
+        <v>412</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>407</v>
+      </c>
+      <c r="O60" t="s">
+        <v>123</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>413</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>414</v>
+      </c>
+      <c r="J61" t="s">
+        <v>415</v>
+      </c>
+      <c r="K61" t="s">
+        <v>416</v>
+      </c>
+      <c r="L61" t="s">
+        <v>417</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>418</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>419</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>420</v>
+      </c>
+      <c r="J62" t="s">
+        <v>421</v>
+      </c>
+      <c r="K62" t="s">
+        <v>422</v>
+      </c>
+      <c r="L62" t="s">
+        <v>423</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>424</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>425</v>
+      </c>
+      <c r="X62" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" t="s">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s">
+        <v>432</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s">
+        <v>64</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>425</v>
+      </c>
+      <c r="X63" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>436</v>
+      </c>
+      <c r="J64" t="s">
+        <v>437</v>
+      </c>
+      <c r="K64" t="s">
+        <v>268</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>425</v>
+      </c>
+      <c r="X64" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>441</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>442</v>
+      </c>
+      <c r="J65" t="s">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s">
+        <v>445</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>446</v>
+      </c>
+      <c r="O65" t="s">
+        <v>123</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>447</v>
+      </c>
+      <c r="X65" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>450</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>451</v>
+      </c>
+      <c r="J66" t="s">
+        <v>452</v>
+      </c>
+      <c r="K66" t="s">
+        <v>453</v>
+      </c>
+      <c r="L66" t="s">
+        <v>454</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>446</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>447</v>
+      </c>
+      <c r="X66" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>456</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>457</v>
+      </c>
+      <c r="J67" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" t="s">
+        <v>459</v>
+      </c>
+      <c r="L67" t="s">
+        <v>460</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>461</v>
+      </c>
+      <c r="O67" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>462</v>
+      </c>
+      <c r="X67" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>465</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>466</v>
+      </c>
+      <c r="J68" t="s">
+        <v>467</v>
+      </c>
+      <c r="K68" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68" t="s">
+        <v>469</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>470</v>
+      </c>
+      <c r="O68" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>471</v>
+      </c>
+      <c r="X68" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>474</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>475</v>
+      </c>
+      <c r="J69" t="s">
+        <v>476</v>
+      </c>
+      <c r="K69" t="s">
+        <v>477</v>
+      </c>
+      <c r="L69" t="s">
+        <v>478</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>479</v>
+      </c>
+      <c r="O69" t="s">
+        <v>123</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>480</v>
+      </c>
+      <c r="X69" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>483</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>484</v>
+      </c>
+      <c r="J70" t="s">
+        <v>485</v>
+      </c>
+      <c r="K70" t="s">
+        <v>486</v>
+      </c>
+      <c r="L70" t="s">
+        <v>487</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>488</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>489</v>
+      </c>
+      <c r="X70" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>492</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>493</v>
+      </c>
+      <c r="J71" t="s">
+        <v>494</v>
+      </c>
+      <c r="K71" t="s">
+        <v>495</v>
+      </c>
+      <c r="L71" t="s">
+        <v>496</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>488</v>
+      </c>
+      <c r="O71" t="s">
+        <v>76</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>497</v>
+      </c>
+      <c r="X71" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>500</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>501</v>
+      </c>
+      <c r="J72" t="s">
+        <v>502</v>
+      </c>
+      <c r="K72" t="s">
+        <v>503</v>
+      </c>
+      <c r="L72" t="s">
+        <v>504</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>505</v>
+      </c>
+      <c r="O72" t="s">
+        <v>133</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>506</v>
+      </c>
+      <c r="X72" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>509</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>510</v>
+      </c>
+      <c r="J73" t="s">
+        <v>511</v>
+      </c>
+      <c r="K73" t="s">
+        <v>512</v>
+      </c>
+      <c r="L73" t="s">
+        <v>513</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>514</v>
+      </c>
+      <c r="O73" t="s">
+        <v>123</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>506</v>
+      </c>
+      <c r="X73" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>514</v>
+      </c>
+      <c r="O74" t="s">
+        <v>76</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>506</v>
+      </c>
+      <c r="X74" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>522</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>523</v>
+      </c>
+      <c r="J75" t="s">
+        <v>524</v>
+      </c>
+      <c r="K75" t="s">
+        <v>525</v>
+      </c>
+      <c r="L75" t="s">
+        <v>526</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>527</v>
+      </c>
+      <c r="O75" t="s">
+        <v>64</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>529</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>530</v>
+      </c>
+      <c r="J76" t="s">
+        <v>531</v>
+      </c>
+      <c r="K76" t="s">
+        <v>532</v>
+      </c>
+      <c r="L76" t="s">
+        <v>533</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>527</v>
+      </c>
+      <c r="O76" t="s">
+        <v>64</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>506</v>
+      </c>
+      <c r="X76" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" t="s">
+        <v>538</v>
+      </c>
+      <c r="L77" t="s">
+        <v>539</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>540</v>
+      </c>
+      <c r="O77" t="s">
+        <v>58</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>541</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>542</v>
+      </c>
+      <c r="J78" t="s">
+        <v>543</v>
+      </c>
+      <c r="K78" t="s">
+        <v>544</v>
+      </c>
+      <c r="L78" t="s">
+        <v>545</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>540</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>546</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>547</v>
+      </c>
+      <c r="J79" t="s">
+        <v>548</v>
+      </c>
+      <c r="K79" t="s">
+        <v>549</v>
+      </c>
+      <c r="L79" t="s">
+        <v>550</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>552</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>553</v>
+      </c>
+      <c r="J80" t="s">
+        <v>554</v>
+      </c>
+      <c r="K80" t="s">
+        <v>555</v>
+      </c>
+      <c r="L80" t="s">
+        <v>556</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>557</v>
+      </c>
+      <c r="O80" t="s">
+        <v>123</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>558</v>
+      </c>
+      <c r="X80" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>561</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>562</v>
+      </c>
+      <c r="J81" t="s">
+        <v>563</v>
+      </c>
+      <c r="K81" t="s">
+        <v>564</v>
+      </c>
+      <c r="L81" t="s">
+        <v>565</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>557</v>
+      </c>
+      <c r="O81" t="s">
+        <v>76</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>566</v>
+      </c>
+      <c r="X81" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>569</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>570</v>
+      </c>
+      <c r="J82" t="s">
+        <v>571</v>
+      </c>
+      <c r="K82" t="s">
+        <v>572</v>
+      </c>
+      <c r="L82" t="s">
+        <v>573</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>574</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>566</v>
+      </c>
+      <c r="X82" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>576</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>577</v>
+      </c>
+      <c r="J83" t="s">
+        <v>578</v>
+      </c>
+      <c r="K83" t="s">
+        <v>579</v>
+      </c>
+      <c r="L83" t="s">
+        <v>580</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>581</v>
+      </c>
+      <c r="O83" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>582</v>
+      </c>
+      <c r="X83" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>585</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>586</v>
+      </c>
+      <c r="J84" t="s">
+        <v>587</v>
+      </c>
+      <c r="K84" t="s">
+        <v>588</v>
+      </c>
+      <c r="L84" t="s">
+        <v>589</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>574</v>
+      </c>
+      <c r="O84" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>582</v>
+      </c>
+      <c r="X84" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>592</v>
+      </c>
+      <c r="J85" t="s">
+        <v>593</v>
+      </c>
+      <c r="K85" t="s">
+        <v>594</v>
+      </c>
+      <c r="L85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>596</v>
+      </c>
+      <c r="O85" t="s">
+        <v>64</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>582</v>
+      </c>
+      <c r="X85" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>598</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>599</v>
+      </c>
+      <c r="J86" t="s">
+        <v>600</v>
+      </c>
+      <c r="K86" t="s">
+        <v>601</v>
+      </c>
+      <c r="L86" t="s">
+        <v>602</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>603</v>
+      </c>
+      <c r="X86" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>606</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>607</v>
+      </c>
+      <c r="J87" t="s">
+        <v>608</v>
+      </c>
+      <c r="K87" t="s">
+        <v>609</v>
+      </c>
+      <c r="L87" t="s">
+        <v>610</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>611</v>
+      </c>
+      <c r="O87" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>612</v>
+      </c>
+      <c r="X87" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>615</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>616</v>
+      </c>
+      <c r="J88" t="s">
+        <v>617</v>
+      </c>
+      <c r="K88" t="s">
+        <v>618</v>
+      </c>
+      <c r="L88" t="s">
+        <v>619</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>611</v>
+      </c>
+      <c r="O88" t="s">
+        <v>123</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>612</v>
+      </c>
+      <c r="X88" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>621</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>622</v>
+      </c>
+      <c r="J89" t="s">
+        <v>623</v>
+      </c>
+      <c r="K89" t="s">
+        <v>624</v>
+      </c>
+      <c r="L89" t="s">
+        <v>625</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>626</v>
+      </c>
+      <c r="O89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>627</v>
+      </c>
+      <c r="X89" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>630</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>631</v>
+      </c>
+      <c r="J90" t="s">
+        <v>632</v>
+      </c>
+      <c r="K90" t="s">
+        <v>633</v>
+      </c>
+      <c r="L90" t="s">
+        <v>634</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>635</v>
+      </c>
+      <c r="O90" t="s">
+        <v>64</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>636</v>
+      </c>
+      <c r="X90" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>639</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>640</v>
+      </c>
+      <c r="J91" t="s">
+        <v>641</v>
+      </c>
+      <c r="K91" t="s">
+        <v>642</v>
+      </c>
+      <c r="L91" t="s">
+        <v>643</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>626</v>
+      </c>
+      <c r="O91" t="s">
+        <v>58</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>644</v>
+      </c>
+      <c r="X91" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>647</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>648</v>
+      </c>
+      <c r="J92" t="s">
+        <v>649</v>
+      </c>
+      <c r="K92" t="s">
+        <v>650</v>
+      </c>
+      <c r="L92" t="s">
+        <v>651</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>652</v>
+      </c>
+      <c r="O92" t="s">
+        <v>123</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>653</v>
+      </c>
+      <c r="X92" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>656</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>657</v>
+      </c>
+      <c r="J93" t="s">
+        <v>658</v>
+      </c>
+      <c r="K93" t="s">
+        <v>659</v>
+      </c>
+      <c r="L93" t="s">
+        <v>660</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>661</v>
+      </c>
+      <c r="O93" t="s">
+        <v>64</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>662</v>
+      </c>
+      <c r="X93" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>665</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>666</v>
+      </c>
+      <c r="J94" t="s">
+        <v>667</v>
+      </c>
+      <c r="K94" t="s">
+        <v>668</v>
+      </c>
+      <c r="L94" t="s">
+        <v>669</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>661</v>
+      </c>
+      <c r="O94" t="s">
+        <v>76</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>670</v>
+      </c>
+      <c r="X94" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>673</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>674</v>
+      </c>
+      <c r="J95" t="s">
+        <v>675</v>
+      </c>
+      <c r="K95" t="s">
+        <v>676</v>
+      </c>
+      <c r="L95" t="s">
+        <v>677</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>678</v>
+      </c>
+      <c r="O95" t="s">
+        <v>64</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>662</v>
+      </c>
+      <c r="X95" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>680</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>681</v>
+      </c>
+      <c r="J96" t="s">
+        <v>682</v>
+      </c>
+      <c r="K96" t="s">
+        <v>683</v>
+      </c>
+      <c r="L96" t="s">
+        <v>684</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>678</v>
+      </c>
+      <c r="O96" t="s">
+        <v>76</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>662</v>
+      </c>
+      <c r="X96" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>686</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>687</v>
+      </c>
+      <c r="J97" t="s">
+        <v>688</v>
+      </c>
+      <c r="K97" t="s">
+        <v>689</v>
+      </c>
+      <c r="L97" t="s">
+        <v>690</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>691</v>
+      </c>
+      <c r="O97" t="s">
+        <v>64</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>662</v>
+      </c>
+      <c r="X97" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>693</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>694</v>
+      </c>
+      <c r="J98" t="s">
+        <v>695</v>
+      </c>
+      <c r="K98" t="s">
+        <v>696</v>
+      </c>
+      <c r="L98" t="s">
+        <v>697</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>698</v>
+      </c>
+      <c r="O98" t="s">
+        <v>58</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>699</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>700</v>
+      </c>
+      <c r="J99" t="s">
+        <v>701</v>
+      </c>
+      <c r="K99" t="s">
+        <v>702</v>
+      </c>
+      <c r="L99" t="s">
+        <v>703</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>704</v>
+      </c>
+      <c r="O99" t="s">
+        <v>133</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>705</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>706</v>
+      </c>
+      <c r="J100" t="s">
+        <v>707</v>
+      </c>
+      <c r="K100" t="s">
+        <v>708</v>
+      </c>
+      <c r="L100" t="s">
+        <v>709</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>704</v>
+      </c>
+      <c r="O100" t="s">
+        <v>123</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>710</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>711</v>
+      </c>
+      <c r="J101" t="s">
+        <v>712</v>
+      </c>
+      <c r="K101" t="s">
+        <v>713</v>
+      </c>
+      <c r="L101" t="s">
+        <v>714</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>715</v>
+      </c>
+      <c r="O101" t="s">
+        <v>76</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>716</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>717</v>
+      </c>
+      <c r="J102" t="s">
+        <v>718</v>
+      </c>
+      <c r="K102" t="s">
+        <v>719</v>
+      </c>
+      <c r="L102" t="s">
+        <v>720</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>722</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>723</v>
+      </c>
+      <c r="J103" t="s">
+        <v>724</v>
+      </c>
+      <c r="K103" t="s">
+        <v>725</v>
+      </c>
+      <c r="L103" t="s">
+        <v>726</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>727</v>
+      </c>
+      <c r="O103" t="s">
+        <v>58</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>729</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>730</v>
+      </c>
+      <c r="J104" t="s">
+        <v>731</v>
+      </c>
+      <c r="K104" t="s">
+        <v>732</v>
+      </c>
+      <c r="L104" t="s">
+        <v>733</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>734</v>
+      </c>
+      <c r="O104" t="s">
+        <v>64</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>735</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>736</v>
+      </c>
+      <c r="J105" t="s">
+        <v>737</v>
+      </c>
+      <c r="K105" t="s">
+        <v>738</v>
+      </c>
+      <c r="L105" t="s">
+        <v>739</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>31085</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>741</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>742</v>
+      </c>
+      <c r="J106" t="s">
+        <v>743</v>
+      </c>
+      <c r="K106" t="s">
+        <v>744</v>
+      </c>
+      <c r="L106" t="s">
+        <v>745</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
